--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-25 18:19:24.171206</t>
+          <t>2025-04-27 16:20:48.009573</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 16:20:48.009573</t>
+          <t>2025-04-27 18:29:04.139248</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:29:04.139248</t>
+          <t>2025-04-27 18:40:07.932515</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -616,7 +616,7 @@
   <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="26.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:40:07.932515</t>
+          <t>2025-04-28 10:33:27.20723</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:40:07.932515</t>
+          <t>2025-04-28 10:44:07.367257</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-28 10:44:07.367257</t>
+          <t>2025-04-30 17:57:31.308527</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="14.711"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="11.711"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="17.711"/>
     <col min="4" max="4" bestFit="1" customWidth="1" hidden="false" width="13.711"/>
     <col min="5" max="5" bestFit="1" customWidth="1" hidden="false" width="17.711"/>
     <col min="6" max="6" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S1P d18:1</t>
+          <t>S1P d18:1 13C2D2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S1P d18:1</t>
+          <t>S1P d18:1 13C2D2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5478,7 +5478,7 @@
         </is>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -14756,45 +14756,43 @@
         <v>43209.7756944444</v>
       </c>
       <c r="D2">
-        <v>0.000541724831029158</v>
+        <v>0.000234240440923183</v>
       </c>
       <c r="E2">
-        <v>0.00216830516569405</v>
+        <v>0.000748650820989781</v>
       </c>
       <c r="F2">
-        <v>0.00359041456616265</v>
+        <v>0.00104741547483472</v>
       </c>
       <c r="G2">
-        <v>0.00250609227763495</v>
+        <v>0.000865375326673556</v>
       </c>
       <c r="H2">
-        <v>0.00105960358043539</v>
+        <v>0.000376621885405902</v>
       </c>
       <c r="I2">
-        <v>0.00162486684013542</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.000500631530600528</v>
+      </c>
+      <c r="J2">
+        <v>0.000105637845906533</v>
       </c>
       <c r="K2">
-        <v>0.00308394232062761</v>
+        <v>0.0015195291599786</v>
       </c>
       <c r="L2">
-        <v>0.0062810159275169</v>
+        <v>0.00421615837346174</v>
       </c>
       <c r="M2">
-        <v>0.0136996370650776</v>
+        <v>0.0112527993526301</v>
       </c>
       <c r="N2">
-        <v>0.00883383090974853</v>
+        <v>0.00314530198394864</v>
       </c>
       <c r="O2">
-        <v>0.0101170825603537</v>
+        <v>0.00376672017121455</v>
       </c>
       <c r="P2">
-        <v>0.0125215450542654</v>
+        <v>0.00231139646869984</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14817,50 +14815,46 @@
         <v>43209.7833333333</v>
       </c>
       <c r="D3">
-        <v>0.0938012923690904</v>
+        <v>0.0405594405594406</v>
       </c>
       <c r="E3">
-        <v>0.0891164213687094</v>
+        <v>0.0307692307692308</v>
       </c>
       <c r="F3">
-        <v>0.652540520322746</v>
+        <v>0.190362707800964</v>
       </c>
       <c r="G3">
-        <v>0.242431871836784</v>
+        <v>0.083713820979021</v>
       </c>
       <c r="H3">
-        <v>0.267572043142078</v>
+        <v>0.0951048951048951</v>
       </c>
       <c r="I3">
-        <v>0.317754401665413</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0979020979020979</v>
+      </c>
+      <c r="J3">
+        <v>0.0447552447552448</v>
       </c>
       <c r="K3">
-        <v>0.252691785676039</v>
+        <v>0.124507042253521</v>
       </c>
       <c r="L3">
-        <v>0.134287195464692</v>
+        <v>0.0901408450704225</v>
       </c>
       <c r="M3">
-        <v>0.161665627466282</v>
+        <v>0.13279117245613</v>
       </c>
       <c r="N3">
-        <v>0.237107069463602</v>
+        <v>0.0844224146478873</v>
       </c>
       <c r="O3">
-        <v>0.272374272963684</v>
+        <v>0.101408450704225</v>
       </c>
       <c r="P3">
-        <v>0.433384587155963</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.08</v>
+      </c>
+      <c r="Q3">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -14878,50 +14872,46 @@
         <v>43209.7902777778</v>
       </c>
       <c r="D4">
-        <v>0.0921514361806715</v>
+        <v>0.0398460469343027</v>
       </c>
       <c r="E4">
-        <v>0.0284875287210607</v>
+        <v>0.00983589030844069</v>
       </c>
       <c r="F4">
-        <v>0.0886401484380173</v>
+        <v>0.0258585913840181</v>
       </c>
       <c r="G4">
-        <v>0.8700596345836</v>
+        <v>0.300439112806258</v>
       </c>
       <c r="H4">
-        <v>0.316090417341388</v>
+        <v>0.112350100675327</v>
       </c>
       <c r="I4">
-        <v>0.0189460233932539</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00583738707435719</v>
+      </c>
+      <c r="J4">
+        <v>0.000734128044760428</v>
       </c>
       <c r="K4">
-        <v>0.103036917292212</v>
+        <v>0.0507686539182602</v>
       </c>
       <c r="L4">
-        <v>0.0207570517567858</v>
+        <v>0.0139332583427072</v>
       </c>
       <c r="M4">
-        <v>0.10857136103413</v>
+        <v>0.0891798618719173</v>
       </c>
       <c r="N4">
-        <v>0.858048508516052</v>
+        <v>0.305509773022872</v>
       </c>
       <c r="O4">
-        <v>0.302892832661313</v>
+        <v>0.112770903637045</v>
       </c>
       <c r="P4">
-        <v>0.0175498820445609</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00323959505061867</v>
+      </c>
+      <c r="Q4">
+        <v>0.00521934758155231</v>
       </c>
     </row>
     <row r="5">
@@ -14939,50 +14929,46 @@
         <v>43209.7972222222</v>
       </c>
       <c r="D5">
-        <v>0.118175827237355</v>
+        <v>0.0510989275236859</v>
       </c>
       <c r="E5">
-        <v>0.0288054377924828</v>
+        <v>0.00994565478766893</v>
       </c>
       <c r="F5">
-        <v>0.15004806808313</v>
+        <v>0.0437728472807796</v>
       </c>
       <c r="G5">
-        <v>0.984721996269033</v>
+        <v>0.340033017462608</v>
       </c>
       <c r="H5">
-        <v>0.29299407824409</v>
+        <v>0.104140816620978</v>
       </c>
       <c r="I5">
-        <v>0.0271445099459811</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00836339152599433</v>
+      </c>
+      <c r="J5">
+        <v>0.00107728562496994</v>
       </c>
       <c r="K5">
-        <v>0.116372697457068</v>
+        <v>0.0573394988708463</v>
       </c>
       <c r="L5">
-        <v>0.0281</v>
+        <v>0.0188622432519626</v>
       </c>
       <c r="M5">
-        <v>0.150175832664402</v>
+        <v>0.123353524225431</v>
       </c>
       <c r="N5">
-        <v>1.02342057470761</v>
+        <v>0.364390805860845</v>
       </c>
       <c r="O5">
-        <v>0.312234855364312</v>
+        <v>0.116249059038606</v>
       </c>
       <c r="P5">
-        <v>0.0254</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00468867620174212</v>
+      </c>
+      <c r="Q5">
+        <v>0.00283901494784385</v>
       </c>
     </row>
     <row r="6">
@@ -15000,50 +14986,46 @@
         <v>43209.8041666667</v>
       </c>
       <c r="D6">
-        <v>0.117851996902837</v>
+        <v>0.050958904109589</v>
       </c>
       <c r="E6">
-        <v>0.133308400184426</v>
+        <v>0.046027397260274</v>
       </c>
       <c r="F6">
-        <v>0.409674546617962</v>
+        <v>0.119512510844163</v>
       </c>
       <c r="G6">
-        <v>0.094930111852486</v>
+        <v>0.0327801882191781</v>
       </c>
       <c r="H6">
-        <v>0.106371206675378</v>
+        <v>0.0378082191780822</v>
       </c>
       <c r="I6">
-        <v>0.154723385953792</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0476712328767123</v>
+      </c>
+      <c r="J6">
+        <v>0.0405479452054795</v>
       </c>
       <c r="K6">
-        <v>0.119261517076892</v>
+        <v>0.0587628865979381</v>
       </c>
       <c r="L6">
-        <v>0.327130357121866</v>
+        <v>0.219587628865979</v>
       </c>
       <c r="M6">
-        <v>0.45869989458076</v>
+        <v>0.376773329999208</v>
       </c>
       <c r="N6">
-        <v>0.255528011558676</v>
+        <v>0.0909812254639175</v>
       </c>
       <c r="O6">
-        <v>0.362736700005044</v>
+        <v>0.135051546391753</v>
       </c>
       <c r="P6">
-        <v>0.323921469781519</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0597938144329897</v>
+      </c>
+      <c r="Q6">
+        <v>0.416494845360825</v>
       </c>
     </row>
     <row r="7">
@@ -15061,50 +15043,46 @@
         <v>43209.8118055556</v>
       </c>
       <c r="D7">
-        <v>0.0815789769769162</v>
+        <v>0.0352745424292845</v>
       </c>
       <c r="E7">
-        <v>0.0651340443772002</v>
+        <v>0.022488834398809</v>
       </c>
       <c r="F7">
-        <v>0.220042268164555</v>
+        <v>0.0641919401078006</v>
       </c>
       <c r="G7">
-        <v>2.05532327403939</v>
+        <v>0.709720893186794</v>
       </c>
       <c r="H7">
-        <v>0.280432518487742</v>
+        <v>0.0996759786321044</v>
       </c>
       <c r="I7">
-        <v>0.0519574341091574</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0160084070408968</v>
+      </c>
+      <c r="J7">
+        <v>0.00373062439793327</v>
       </c>
       <c r="K7">
-        <v>0.0680778226945854</v>
+        <v>0.0335435056746532</v>
       </c>
       <c r="L7">
-        <v>0.0536347059360626</v>
+        <v>0.0360025220680958</v>
       </c>
       <c r="M7">
-        <v>0.21827223160278</v>
+        <v>0.179287496070829</v>
       </c>
       <c r="N7">
-        <v>1.78219477593337</v>
+        <v>0.63455377647541</v>
       </c>
       <c r="O7">
-        <v>0.260293079074786</v>
+        <v>0.0969104665825977</v>
       </c>
       <c r="P7">
-        <v>0.0314244814142092</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00580075662042875</v>
+      </c>
+      <c r="Q7">
+        <v>0.0158890290037831</v>
       </c>
     </row>
     <row r="8">
@@ -15122,50 +15100,46 @@
         <v>43209.81875</v>
       </c>
       <c r="D8">
-        <v>0.0749846560017277</v>
+        <v>0.032423174789587</v>
       </c>
       <c r="E8">
-        <v>0.0625005436125968</v>
+        <v>0.0215795654726952</v>
       </c>
       <c r="F8">
-        <v>0.21826269683439</v>
+        <v>0.0636727937765233</v>
       </c>
       <c r="G8">
-        <v>1.91376607704026</v>
+        <v>0.660839969411822</v>
       </c>
       <c r="H8">
-        <v>0.277076337482469</v>
+        <v>0.0984830690937561</v>
       </c>
       <c r="I8">
-        <v>0.0489799178575857</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0150910158543746</v>
+      </c>
+      <c r="J8">
+        <v>0.00303386181248777</v>
       </c>
       <c r="K8">
-        <v>0.0716818946474001</v>
+        <v>0.0353193146417446</v>
       </c>
       <c r="L8">
-        <v>0.0522688265495512</v>
+        <v>0.0350856697819315</v>
       </c>
       <c r="M8">
-        <v>0.274895144748598</v>
+        <v>0.225797215807531</v>
       </c>
       <c r="N8">
-        <v>1.7646338250238</v>
+        <v>0.628301167126168</v>
       </c>
       <c r="O8">
-        <v>0.285953506955654</v>
+        <v>0.106464174454829</v>
       </c>
       <c r="P8">
-        <v>0.108852437194547</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0200934579439252</v>
+      </c>
+      <c r="Q8">
+        <v>0.0476635514018692</v>
       </c>
     </row>
     <row r="9">
@@ -15183,50 +15157,46 @@
         <v>43209.8256944444</v>
       </c>
       <c r="D9">
-        <v>0.0796666785696879</v>
+        <v>0.0344476694553526</v>
       </c>
       <c r="E9">
-        <v>0.065016797020767</v>
+        <v>0.022448352398839</v>
       </c>
       <c r="F9">
-        <v>0.204817485891029</v>
+        <v>0.059750482927739</v>
       </c>
       <c r="G9">
-        <v>2.05561496420482</v>
+        <v>0.709821616322349</v>
       </c>
       <c r="H9">
-        <v>0.299357459549639</v>
+        <v>0.106402595185248</v>
       </c>
       <c r="I9">
-        <v>0.0496293329408165</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0152911046610893</v>
+      </c>
+      <c r="J9">
+        <v>0.0041727847020659</v>
       </c>
       <c r="K9">
-        <v>0.0832616032565027</v>
+        <v>0.0410249028357564</v>
       </c>
       <c r="L9">
-        <v>0.045204980501497</v>
+        <v>0.0303440333957104</v>
       </c>
       <c r="M9">
-        <v>0.230962783651365</v>
+        <v>0.189711439070083</v>
       </c>
       <c r="N9">
-        <v>1.87394499915865</v>
+        <v>0.667221614708507</v>
       </c>
       <c r="O9">
-        <v>0.270408454134215</v>
+        <v>0.100676551029221</v>
       </c>
       <c r="P9">
-        <v>0.107457168760061</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.019835900388657</v>
+      </c>
+      <c r="Q9">
+        <v>0.0341442349215489</v>
       </c>
     </row>
     <row r="10">
@@ -15244,50 +15214,46 @@
         <v>43209.8326388889</v>
       </c>
       <c r="D10">
-        <v>0.0771386041960796</v>
+        <v>0.0333545365176661</v>
       </c>
       <c r="E10">
-        <v>0.068483802849368</v>
+        <v>0.0236454056554675</v>
       </c>
       <c r="F10">
-        <v>0.249727546683887</v>
+        <v>0.0728518927464058</v>
       </c>
       <c r="G10">
-        <v>2.08711243638622</v>
+        <v>0.720697965737582</v>
       </c>
       <c r="H10">
-        <v>0.332055384648907</v>
+        <v>0.11802463424507</v>
       </c>
       <c r="I10">
-        <v>0.0576004828525558</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0177470652865321</v>
+      </c>
+      <c r="J10">
+        <v>0.00352743884808882</v>
       </c>
       <c r="K10">
-        <v>0.0722153381853258</v>
+        <v>0.035582154515778</v>
       </c>
       <c r="L10">
-        <v>0.0468160379074474</v>
+        <v>0.0314254624591948</v>
       </c>
       <c r="M10">
-        <v>0.235674027842393</v>
+        <v>0.193581226665991</v>
       </c>
       <c r="N10">
-        <v>1.89752959898344</v>
+        <v>0.67561895549728</v>
       </c>
       <c r="O10">
-        <v>0.319328455982478</v>
+        <v>0.118890097932535</v>
       </c>
       <c r="P10">
-        <v>0.0110821956454463</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00204570184983678</v>
+      </c>
+      <c r="Q10">
+        <v>0.0307290533188248</v>
       </c>
     </row>
     <row r="11">
@@ -15305,50 +15271,46 @@
         <v>43209.8395833333</v>
       </c>
       <c r="D11">
-        <v>0.0747714924805937</v>
+        <v>0.0323310034244969</v>
       </c>
       <c r="E11">
-        <v>0.0619826721125473</v>
+        <v>0.021400759956842</v>
       </c>
       <c r="F11">
-        <v>0.226624133692714</v>
+        <v>0.0661120381021785</v>
       </c>
       <c r="G11">
-        <v>2.15382646055475</v>
+        <v>0.743734894973495</v>
       </c>
       <c r="H11">
-        <v>0.308848997059855</v>
+        <v>0.109776234929868</v>
       </c>
       <c r="I11">
-        <v>0.0522236968726731</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0160904442463761</v>
+      </c>
+      <c r="J11">
+        <v>0.00397804569123235</v>
       </c>
       <c r="K11">
-        <v>0.0782290344070064</v>
+        <v>0.0385452406626801</v>
       </c>
       <c r="L11">
-        <v>0.0482222310912126</v>
+        <v>0.0323693755514165</v>
       </c>
       <c r="M11">
-        <v>0.24588683795989</v>
+        <v>0.201969967370054</v>
       </c>
       <c r="N11">
-        <v>1.98526715426706</v>
+        <v>0.706858075820018</v>
       </c>
       <c r="O11">
-        <v>0.317854537475151</v>
+        <v>0.118341339084404</v>
       </c>
       <c r="P11">
-        <v>0.0855000962308966</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0157827663954514</v>
+      </c>
+      <c r="Q11">
+        <v>0.0305852367414959</v>
       </c>
     </row>
     <row r="12">
@@ -15366,50 +15328,46 @@
         <v>43209.8472222222</v>
       </c>
       <c r="D12">
-        <v>0.0685483229661756</v>
+        <v>0.0296401207336893</v>
       </c>
       <c r="E12">
-        <v>0.0646502703477132</v>
+        <v>0.0223218017181333</v>
       </c>
       <c r="F12">
-        <v>0.232653105924714</v>
+        <v>0.0678708430247798</v>
       </c>
       <c r="G12">
-        <v>1.93581045196088</v>
+        <v>0.66845208262828</v>
       </c>
       <c r="H12">
-        <v>0.315586203445152</v>
+        <v>0.112170884606455</v>
       </c>
       <c r="I12">
-        <v>0.0525541054764148</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0161922451822614</v>
+      </c>
+      <c r="J12">
+        <v>0.00458788019503134</v>
       </c>
       <c r="K12">
-        <v>0.082985003705072</v>
+        <v>0.0408886158886159</v>
       </c>
       <c r="L12">
-        <v>0.0433137382484589</v>
+        <v>0.0290745290745291</v>
       </c>
       <c r="M12">
-        <v>0.240341270513238</v>
+        <v>0.197414871678305</v>
       </c>
       <c r="N12">
-        <v>1.94234937887692</v>
+        <v>0.691577121785422</v>
       </c>
       <c r="O12">
-        <v>0.31016685397209</v>
+        <v>0.115479115479115</v>
       </c>
       <c r="P12">
-        <v>0.0664407677381301</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0122645372645373</v>
+      </c>
+      <c r="Q12">
+        <v>0.017977067977068</v>
       </c>
     </row>
     <row r="13">
@@ -15427,50 +15385,46 @@
         <v>43209.8541666667</v>
       </c>
       <c r="D13">
-        <v>0.0695548129348628</v>
+        <v>0.0300753244396043</v>
       </c>
       <c r="E13">
-        <v>0.0618341718057118</v>
+        <v>0.0213494872492967</v>
       </c>
       <c r="F13">
-        <v>0.190663793473672</v>
+        <v>0.0556214899686236</v>
       </c>
       <c r="G13">
-        <v>2.02064261654626</v>
+        <v>0.697745362367275</v>
       </c>
       <c r="H13">
-        <v>0.294633871463218</v>
+        <v>0.104723659134223</v>
       </c>
       <c r="I13">
-        <v>0.0465092701132104</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0143297939921953</v>
+      </c>
+      <c r="J13">
+        <v>0.00338052454850712</v>
       </c>
       <c r="K13">
-        <v>0.0870157716360283</v>
+        <v>0.0428746677571049</v>
       </c>
       <c r="L13">
-        <v>0.0393225395608297</v>
+        <v>0.0263954201594766</v>
       </c>
       <c r="M13">
-        <v>0.237993156475845</v>
+        <v>0.19548614495406</v>
       </c>
       <c r="N13">
-        <v>2.04676825538199</v>
+        <v>0.728755657665099</v>
       </c>
       <c r="O13">
-        <v>0.292808995162338</v>
+        <v>0.109016561030464</v>
       </c>
       <c r="P13">
-        <v>0.0829597873082745</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0153138417501533</v>
+      </c>
+      <c r="Q13">
+        <v>0.0235943569822122</v>
       </c>
     </row>
     <row r="14">
@@ -15488,50 +15442,46 @@
         <v>43209.8611111111</v>
       </c>
       <c r="D14">
-        <v>0.072381311118158</v>
+        <v>0.0312974950745849</v>
       </c>
       <c r="E14">
-        <v>0.0650909802995981</v>
+        <v>0.0224739656628202</v>
       </c>
       <c r="F14">
-        <v>0.213947757991765</v>
+        <v>0.0624140160968303</v>
       </c>
       <c r="G14">
-        <v>2.0774675310157</v>
+        <v>0.717367496540482</v>
       </c>
       <c r="H14">
-        <v>0.320369117322897</v>
+        <v>0.11387090721456</v>
       </c>
       <c r="I14">
-        <v>0.0481409864177298</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0148325358851675</v>
+      </c>
+      <c r="J14">
+        <v>0.0042452387653626</v>
       </c>
       <c r="K14">
-        <v>0.0627135448886435</v>
+        <v>0.0309004028857866</v>
       </c>
       <c r="L14">
-        <v>0.0426001372617164</v>
+        <v>0.0285955214091633</v>
       </c>
       <c r="M14">
-        <v>0.238833283980429</v>
+        <v>0.196176220625029</v>
       </c>
       <c r="N14">
-        <v>1.98106865419874</v>
+        <v>0.705363192034105</v>
       </c>
       <c r="O14">
-        <v>0.290762095471166</v>
+        <v>0.108254473906118</v>
       </c>
       <c r="P14">
-        <v>0.0717705666446327</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0132483837721353</v>
+      </c>
+      <c r="Q14">
+        <v>0.030282020050595</v>
       </c>
     </row>
     <row r="15">
@@ -15549,50 +15499,46 @@
         <v>43209.8680555556</v>
       </c>
       <c r="D15">
-        <v>0.0667944608451029</v>
+        <v>0.0288817552074534</v>
       </c>
       <c r="E15">
-        <v>0.0582458442770699</v>
+        <v>0.0201105452438995</v>
       </c>
       <c r="F15">
-        <v>0.225060034686891</v>
+        <v>0.065655750541875</v>
       </c>
       <c r="G15">
-        <v>2.0243706863559</v>
+        <v>0.699032697098791</v>
       </c>
       <c r="H15">
-        <v>0.304833051512409</v>
+        <v>0.108348820931187</v>
       </c>
       <c r="I15">
-        <v>0.0505752086347908</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0155825348169245</v>
+      </c>
+      <c r="J15">
+        <v>0.0044845646979315</v>
       </c>
       <c r="K15">
-        <v>0.0660779845738142</v>
+        <v>0.0325581395348837</v>
       </c>
       <c r="L15">
-        <v>0.0407046219492021</v>
+        <v>0.0273231487788265</v>
       </c>
       <c r="M15">
-        <v>0.224733332588403</v>
+        <v>0.184594605495913</v>
       </c>
       <c r="N15">
-        <v>1.92307991836427</v>
+        <v>0.684716194403036</v>
       </c>
       <c r="O15">
-        <v>0.293864020911664</v>
+        <v>0.109409360708378</v>
       </c>
       <c r="P15">
-        <v>0.0670508410604244</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0123771528656223</v>
+      </c>
+      <c r="Q15">
+        <v>0.0250267587817456</v>
       </c>
     </row>
     <row r="16">
@@ -15610,50 +15556,46 @@
         <v>43209.8756944444</v>
       </c>
       <c r="D16">
-        <v>0.0788948892551537</v>
+        <v>0.0341139497161395</v>
       </c>
       <c r="E16">
-        <v>0.057270897669193</v>
+        <v>0.0197739253852393</v>
       </c>
       <c r="F16">
-        <v>0.0884733484004352</v>
+        <v>0.0258099315601044</v>
       </c>
       <c r="G16">
-        <v>1.29529621348706</v>
+        <v>0.44727697933901</v>
       </c>
       <c r="H16">
-        <v>0.219850018427896</v>
+        <v>0.0781427412814274</v>
       </c>
       <c r="I16">
-        <v>0.032048334906704</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0098742903487429</v>
+      </c>
+      <c r="J16">
+        <v>0.00231650446066504</v>
       </c>
       <c r="K16">
-        <v>0.0731223215915169</v>
+        <v>0.0360290460559037</v>
       </c>
       <c r="L16">
-        <v>0.0342021258368276</v>
+        <v>0.0229583208992341</v>
       </c>
       <c r="M16">
-        <v>0.0975488873184495</v>
+        <v>0.0801260683660757</v>
       </c>
       <c r="N16">
-        <v>1.22107382276343</v>
+        <v>0.434765613755098</v>
       </c>
       <c r="O16">
-        <v>0.213847084531005</v>
+        <v>0.0796180244703074</v>
       </c>
       <c r="P16">
-        <v>0.0400922775345714</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00740077588779469</v>
+      </c>
+      <c r="Q16">
+        <v>0.00350144235551577</v>
       </c>
     </row>
     <row r="17">
@@ -15671,52 +15613,48 @@
         <v>43209.8826388889</v>
       </c>
       <c r="D17">
-        <v>0.0686835718937231</v>
+        <v>0.0296986020264204</v>
       </c>
       <c r="E17">
-        <v>0.059062345443479</v>
+        <v>0.0203924586379377</v>
       </c>
       <c r="F17">
-        <v>0.237888499220908</v>
+        <v>0.0693981407376842</v>
       </c>
       <c r="G17">
-        <v>2.20758247054351</v>
+        <v>0.762297309901244</v>
       </c>
       <c r="H17">
-        <v>0.267812768957774</v>
+        <v>0.0951904578684109</v>
       </c>
       <c r="I17">
-        <v>0.0528659162740757</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0162883160189817</v>
+      </c>
+      <c r="J17">
+        <v>0.00778761061946903</v>
       </c>
       <c r="K17">
-        <v>0.0690840588252462</v>
+        <v>0.0340393013100437</v>
       </c>
       <c r="L17">
-        <v>0.0396832589763634</v>
+        <v>0.0266375545851528</v>
       </c>
       <c r="M17">
-        <v>0.243118739493622</v>
+        <v>0.199696267966101</v>
       </c>
       <c r="N17">
-        <v>2.18176930991396</v>
+        <v>0.776823035113537</v>
       </c>
       <c r="O17">
-        <v>0.273634714316615</v>
+        <v>0.101877729257642</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q17">
+        <v>0.0247161572052402</v>
       </c>
     </row>
     <row r="18">
@@ -15734,52 +15672,48 @@
         <v>43209.8895833333</v>
       </c>
       <c r="D18">
-        <v>0.0501887252844893</v>
+        <v>0.0217014773306164</v>
       </c>
       <c r="E18">
-        <v>0.0504459086587302</v>
+        <v>0.0174174611260704</v>
       </c>
       <c r="F18">
-        <v>0.232618927183261</v>
+        <v>0.0678608722144321</v>
       </c>
       <c r="G18">
-        <v>2.09586767755137</v>
+        <v>0.723721226194115</v>
       </c>
       <c r="H18">
-        <v>0.355415110526776</v>
+        <v>0.126327535599059</v>
       </c>
       <c r="I18">
-        <v>0.0476495608137808</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0146811246148994</v>
+      </c>
+      <c r="J18">
+        <v>0.00358537709531087</v>
       </c>
       <c r="K18">
-        <v>0.0573121810751652</v>
+        <v>0.0282390269698572</v>
       </c>
       <c r="L18">
-        <v>0.0381615129337973</v>
+        <v>0.0256160761501851</v>
       </c>
       <c r="M18">
-        <v>0.248361765507304</v>
+        <v>0.204002857947451</v>
       </c>
       <c r="N18">
-        <v>2.14448103010178</v>
+        <v>0.763546473487044</v>
       </c>
       <c r="O18">
-        <v>0.354125764969057</v>
+        <v>0.131845584346906</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q18">
+        <v>0.0129455314648334</v>
       </c>
     </row>
     <row r="19">
@@ -15797,50 +15731,46 @@
         <v>43209.8965277778</v>
       </c>
       <c r="D19">
-        <v>0.0522356679677032</v>
+        <v>0.0225865701474799</v>
       </c>
       <c r="E19">
-        <v>0.0627416002100214</v>
+        <v>0.0216627950948085</v>
       </c>
       <c r="F19">
-        <v>0.278014724757015</v>
+        <v>0.0811039838370639</v>
       </c>
       <c r="G19">
-        <v>1.81463056773046</v>
+        <v>0.626607621098266</v>
       </c>
       <c r="H19">
-        <v>0.375728395368926</v>
+        <v>0.133547620333856</v>
       </c>
       <c r="I19">
-        <v>0.0541085153793278</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0166711684944087</v>
+      </c>
+      <c r="J19">
+        <v>0.00435956998541408</v>
       </c>
       <c r="K19">
-        <v>0.0540782421857665</v>
+        <v>0.0266455910579203</v>
       </c>
       <c r="L19">
-        <v>0.0415454327591226</v>
+        <v>0.0278875465733318</v>
       </c>
       <c r="M19">
-        <v>0.252591095526225</v>
+        <v>0.207476804145652</v>
       </c>
       <c r="N19">
-        <v>1.82273906334092</v>
+        <v>0.64898964568364</v>
       </c>
       <c r="O19">
-        <v>0.393198007932436</v>
+        <v>0.146392683752964</v>
       </c>
       <c r="P19">
-        <v>0.0556593618482453</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0102743592638591</v>
+      </c>
+      <c r="Q19">
+        <v>0.0139099017726092</v>
       </c>
     </row>
     <row r="20">
@@ -15858,50 +15788,46 @@
         <v>43209.9041666667</v>
       </c>
       <c r="D20">
-        <v>0.0794704039547361</v>
+        <v>0.0343628008103968</v>
       </c>
       <c r="E20">
-        <v>0.0886331221027502</v>
+        <v>0.0306023620101794</v>
       </c>
       <c r="F20">
-        <v>0.525153123365387</v>
+        <v>0.153200556073551</v>
       </c>
       <c r="G20">
-        <v>4.25213205805939</v>
+        <v>1.46829795600138</v>
       </c>
       <c r="H20">
-        <v>0.399612382079291</v>
+        <v>0.142036863171419</v>
       </c>
       <c r="I20">
-        <v>0.122290661276701</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0376785096605228</v>
+      </c>
+      <c r="J20">
+        <v>0.0106389286949647</v>
       </c>
       <c r="K20">
-        <v>0.079018661336762</v>
+        <v>0.0389343079734539</v>
       </c>
       <c r="L20">
-        <v>0.0460522450614811</v>
+        <v>0.0309127632971049</v>
       </c>
       <c r="M20">
-        <v>0.585575789913191</v>
+        <v>0.480988426069204</v>
       </c>
       <c r="N20">
-        <v>3.97629624388038</v>
+        <v>1.41576769947485</v>
       </c>
       <c r="O20">
-        <v>0.363529549936002</v>
+        <v>0.135346734634991</v>
       </c>
       <c r="P20">
-        <v>0.131720236165513</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.02431470616524</v>
+      </c>
+      <c r="Q20">
+        <v>0.0458593825141868</v>
       </c>
     </row>
     <row r="21">
@@ -15919,50 +15845,46 @@
         <v>43209.9111111111</v>
       </c>
       <c r="D21">
-        <v>0.0684888398490697</v>
+        <v>0.0296144003849435</v>
       </c>
       <c r="E21">
-        <v>0.0647151948182212</v>
+        <v>0.0223442181929529</v>
       </c>
       <c r="F21">
-        <v>0.35785560614472</v>
+        <v>0.104395604664935</v>
       </c>
       <c r="G21">
-        <v>2.98284723218792</v>
+        <v>1.03000293365412</v>
       </c>
       <c r="H21">
-        <v>0.284931623589119</v>
+        <v>0.101275125215984</v>
       </c>
       <c r="I21">
-        <v>0.0786829027756078</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.024242689355001</v>
+      </c>
+      <c r="J21">
+        <v>0.00710833096388968</v>
       </c>
       <c r="K21">
-        <v>0.0677476735829699</v>
+        <v>0.0333808336302102</v>
       </c>
       <c r="L21">
-        <v>0.0460405019073915</v>
+        <v>0.0309048806555041</v>
       </c>
       <c r="M21">
-        <v>0.441486734511447</v>
+        <v>0.362634544017903</v>
       </c>
       <c r="N21">
-        <v>2.81269712790025</v>
+        <v>1.0014660623477</v>
       </c>
       <c r="O21">
-        <v>0.278734039193524</v>
+        <v>0.10377627360171</v>
       </c>
       <c r="P21">
-        <v>0.0823114207436847</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0151941574634841</v>
+      </c>
+      <c r="Q21">
+        <v>0.029818311364446</v>
       </c>
     </row>
     <row r="22">
@@ -15980,50 +15902,46 @@
         <v>43209.9180555556</v>
       </c>
       <c r="D22">
-        <v>0.0495331386493705</v>
+        <v>0.0214180033348207</v>
       </c>
       <c r="E22">
-        <v>0.0455177907599178</v>
+        <v>0.0157159296399803</v>
       </c>
       <c r="F22">
-        <v>0.218400632195177</v>
+        <v>0.0637130330382445</v>
       </c>
       <c r="G22">
-        <v>1.71954714380071</v>
+        <v>0.593774492893544</v>
       </c>
       <c r="H22">
-        <v>0.282170042259054</v>
+        <v>0.100293558159743</v>
       </c>
       <c r="I22">
-        <v>0.0417852256506021</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0128742866536718</v>
+      </c>
+      <c r="J22">
+        <v>0.00386087691693478</v>
       </c>
       <c r="K22">
-        <v>0.0479018932884159</v>
+        <v>0.0236023622047244</v>
       </c>
       <c r="L22">
-        <v>0.0331967595776583</v>
+        <v>0.0222834645669291</v>
       </c>
       <c r="M22">
-        <v>0.212313419922615</v>
+        <v>0.174392964055238</v>
       </c>
       <c r="N22">
-        <v>1.65444882880834</v>
+        <v>0.589069593561024</v>
       </c>
       <c r="O22">
-        <v>0.268432680042652</v>
+        <v>0.0999409448818898</v>
       </c>
       <c r="P22">
-        <v>0.0158893463302752</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00293307086614173</v>
+      </c>
+      <c r="Q22">
+        <v>0.0389763779527559</v>
       </c>
     </row>
     <row r="23">
@@ -16041,50 +15959,46 @@
         <v>43209.925</v>
       </c>
       <c r="D23">
-        <v>0.044549321154729</v>
+        <v>0.0192630133093355</v>
       </c>
       <c r="E23">
-        <v>0.0310301412254093</v>
+        <v>0.0107137782408942</v>
       </c>
       <c r="F23">
-        <v>0.273561277145522</v>
+        <v>0.079804799617892</v>
       </c>
       <c r="G23">
-        <v>1.58316368748858</v>
+        <v>0.546680106500734</v>
       </c>
       <c r="H23">
-        <v>0.226229306876895</v>
+        <v>0.0804101738265524</v>
       </c>
       <c r="I23">
-        <v>0.0385854305707948</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0118884099843698</v>
+      </c>
+      <c r="J23">
+        <v>0.00401174631743476</v>
       </c>
       <c r="K23">
-        <v>0.0518645703437696</v>
+        <v>0.0255548641360714</v>
       </c>
       <c r="L23">
-        <v>0.0264514577874214</v>
+        <v>0.0177556523542833</v>
       </c>
       <c r="M23">
-        <v>0.260556538114595</v>
+        <v>0.214019570700418</v>
       </c>
       <c r="N23">
-        <v>1.54880339696284</v>
+        <v>0.551454340362995</v>
       </c>
       <c r="O23">
-        <v>0.253883123875236</v>
+        <v>0.0945239576851276</v>
       </c>
       <c r="P23">
-        <v>0.0570834293391489</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0105372329392242</v>
+      </c>
+      <c r="Q23">
+        <v>0.0294129848579133</v>
       </c>
     </row>
     <row r="24">
@@ -16102,50 +16016,46 @@
         <v>43209.9326388889</v>
       </c>
       <c r="D24">
-        <v>0.0659829879162813</v>
+        <v>0.0285308763742212</v>
       </c>
       <c r="E24">
-        <v>0.0655076121521559</v>
+        <v>0.0226178161610816</v>
       </c>
       <c r="F24">
-        <v>0.216214171752301</v>
+        <v>0.063075186778215</v>
       </c>
       <c r="G24">
-        <v>2.13544939009562</v>
+        <v>0.737389133688566</v>
       </c>
       <c r="H24">
-        <v>0.314325200330886</v>
+        <v>0.111722677957132</v>
       </c>
       <c r="I24">
-        <v>0.0520001060299237</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0160215545238038</v>
+      </c>
+      <c r="J24">
+        <v>0.00437345137001131</v>
       </c>
       <c r="K24">
-        <v>0.0672707643297114</v>
+        <v>0.0331458494957331</v>
       </c>
       <c r="L24">
-        <v>0.033892069009061</v>
+        <v>0.0227501939487975</v>
       </c>
       <c r="M24">
-        <v>0.215739758099287</v>
+        <v>0.177207337591792</v>
       </c>
       <c r="N24">
-        <v>1.77134616229141</v>
+        <v>0.630691107339022</v>
       </c>
       <c r="O24">
-        <v>0.285052672015523</v>
+        <v>0.106128782001552</v>
       </c>
       <c r="P24">
-        <v>0.0706057124148583</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.013033359193173</v>
+      </c>
+      <c r="Q24">
+        <v>0.0095422808378588</v>
       </c>
     </row>
     <row r="25">
@@ -16163,50 +16073,46 @@
         <v>43209.9395833333</v>
       </c>
       <c r="D25">
-        <v>0.0533684195376053</v>
+        <v>0.0230763690490481</v>
       </c>
       <c r="E25">
-        <v>0.0501476436381816</v>
+        <v>0.0173144791491609</v>
       </c>
       <c r="F25">
-        <v>0.32391548271189</v>
+        <v>0.094494405277996</v>
       </c>
       <c r="G25">
-        <v>2.73511164202001</v>
+        <v>0.944457692888868</v>
       </c>
       <c r="H25">
-        <v>0.31547449412586</v>
+        <v>0.112131179026721</v>
       </c>
       <c r="I25">
-        <v>0.0621651982120294</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0191534823422082</v>
+      </c>
+      <c r="J25">
+        <v>0.00542097808081051</v>
       </c>
       <c r="K25">
-        <v>0.0598609481705111</v>
+        <v>0.0294948630136986</v>
       </c>
       <c r="L25">
-        <v>0.0369248469496337</v>
+        <v>0.0247859589041096</v>
       </c>
       <c r="M25">
-        <v>0.395522749118739</v>
+        <v>0.324880003323548</v>
       </c>
       <c r="N25">
-        <v>2.80503003071567</v>
+        <v>0.998736178084332</v>
       </c>
       <c r="O25">
-        <v>0.34568481775731</v>
+        <v>0.128702910958904</v>
       </c>
       <c r="P25">
-        <v>0.111314534372251</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0205479452054795</v>
+      </c>
+      <c r="Q25">
+        <v>0.0318065068493151</v>
       </c>
     </row>
     <row r="26">
@@ -16224,50 +16130,46 @@
         <v>43209.9465277778</v>
       </c>
       <c r="D26">
-        <v>0.0467832644379408</v>
+        <v>0.0202289647106453</v>
       </c>
       <c r="E26">
-        <v>0.0419645522139849</v>
+        <v>0.0144891028092036</v>
       </c>
       <c r="F26">
-        <v>0.251331468921508</v>
+        <v>0.0733197977588097</v>
       </c>
       <c r="G26">
-        <v>2.74281037002218</v>
+        <v>0.947116130217494</v>
       </c>
       <c r="H26">
-        <v>0.322367817683193</v>
+        <v>0.114581318458874</v>
       </c>
       <c r="I26">
-        <v>0.0628380368996953</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0193607881064304</v>
+      </c>
+      <c r="J26">
+        <v>0.00582982838892513</v>
       </c>
       <c r="K26">
-        <v>0.0507091971345682</v>
+        <v>0.024985585239285</v>
       </c>
       <c r="L26">
-        <v>0.0316961689828537</v>
+        <v>0.0212761868152989</v>
       </c>
       <c r="M26">
-        <v>0.321851100015759</v>
+        <v>0.2643665545807</v>
       </c>
       <c r="N26">
-        <v>2.53834564014125</v>
+        <v>0.903782703048241</v>
       </c>
       <c r="O26">
-        <v>0.307049977755214</v>
+        <v>0.114318662310206</v>
       </c>
       <c r="P26">
-        <v>0.0645537295879054</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0119162021910436</v>
+      </c>
+      <c r="Q26">
+        <v>0.0209878916009994</v>
       </c>
     </row>
     <row r="27">
@@ -16285,50 +16187,46 @@
         <v>43209.9541666667</v>
       </c>
       <c r="D27">
-        <v>0.0429262138962058</v>
+        <v>0.0185611858535406</v>
       </c>
       <c r="E27">
-        <v>0.0510363156991267</v>
+        <v>0.0176213109911652</v>
       </c>
       <c r="F27">
-        <v>0.071785782802409</v>
+        <v>0.0209417431872578</v>
       </c>
       <c r="G27">
-        <v>0.811836875160226</v>
+        <v>0.280334290687183</v>
       </c>
       <c r="H27">
-        <v>0.232440012198867</v>
+        <v>0.0826176857595532</v>
       </c>
       <c r="I27">
-        <v>0.0208827832444896</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00643411477214748</v>
+      </c>
+      <c r="J27">
+        <v>0.00137490265581783</v>
       </c>
       <c r="K27">
-        <v>0.0522597880914327</v>
+        <v>0.0257495969908651</v>
       </c>
       <c r="L27">
-        <v>0.0356386923938957</v>
+        <v>0.0239226222461042</v>
       </c>
       <c r="M27">
-        <v>0.06934572948991</v>
+        <v>0.0569601644339108</v>
       </c>
       <c r="N27">
-        <v>0.749528689389584</v>
+        <v>0.26687108886835</v>
       </c>
       <c r="O27">
-        <v>0.233693190769438</v>
+        <v>0.0870069854916711</v>
       </c>
       <c r="P27">
-        <v>0.0577535613190107</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0106609349811929</v>
+      </c>
+      <c r="Q27">
+        <v>0.00421278882321333</v>
       </c>
     </row>
     <row r="28">
@@ -16346,50 +16244,46 @@
         <v>43209.9611111111</v>
       </c>
       <c r="D28">
-        <v>0.0479529505092488</v>
+        <v>0.0207347339968055</v>
       </c>
       <c r="E28">
-        <v>0.0708715887201432</v>
+        <v>0.0244698365892616</v>
       </c>
       <c r="F28">
-        <v>0.202090982183311</v>
+        <v>0.0589550922777088</v>
       </c>
       <c r="G28">
-        <v>2.00557516432773</v>
+        <v>0.692542440869886</v>
       </c>
       <c r="H28">
-        <v>0.248111027560196</v>
+        <v>0.0881877380513577</v>
       </c>
       <c r="I28">
-        <v>0.0556850185591756</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0171568988819265</v>
+      </c>
+      <c r="J28">
+        <v>0.00333210468116476</v>
       </c>
       <c r="K28">
-        <v>0.0478131303068043</v>
+        <v>0.0235586266465126</v>
       </c>
       <c r="L28">
-        <v>0.0532397730750603</v>
+        <v>0.0357374217231699</v>
       </c>
       <c r="M28">
-        <v>0.213738670143545</v>
+        <v>0.175563656000377</v>
       </c>
       <c r="N28">
-        <v>2.07467476674063</v>
+        <v>0.738691823122436</v>
       </c>
       <c r="O28">
-        <v>0.298344554418558</v>
+        <v>0.111077521053768</v>
       </c>
       <c r="P28">
-        <v>0.0683158602081307</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0126106672424962</v>
+      </c>
+      <c r="Q28">
+        <v>0.0104944936298856</v>
       </c>
     </row>
     <row r="29">
@@ -16407,50 +16301,46 @@
         <v>43209.9680555556</v>
       </c>
       <c r="D29">
-        <v>0.0707726251529778</v>
+        <v>0.0306019033494006</v>
       </c>
       <c r="E29">
-        <v>0.0713636283935412</v>
+        <v>0.0246397231491781</v>
       </c>
       <c r="F29">
-        <v>0.478486191894468</v>
+        <v>0.139586622282631</v>
       </c>
       <c r="G29">
-        <v>3.13836566102617</v>
+        <v>1.08370479146706</v>
       </c>
       <c r="H29">
-        <v>0.361021793680268</v>
+        <v>0.128320355951057</v>
       </c>
       <c r="I29">
-        <v>0.0713710598163423</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0219898652824126</v>
+      </c>
+      <c r="J29">
+        <v>0.00637251266839698</v>
       </c>
       <c r="K29">
-        <v>0.0795292875436008</v>
+        <v>0.0391859052247874</v>
       </c>
       <c r="L29">
-        <v>0.0430512599448671</v>
+        <v>0.0288983394086675</v>
       </c>
       <c r="M29">
-        <v>0.522475914186844</v>
+        <v>0.42915856828892</v>
       </c>
       <c r="N29">
-        <v>3.03595236938385</v>
+        <v>1.08095650778858</v>
       </c>
       <c r="O29">
-        <v>0.375201046246085</v>
+        <v>0.139692183070069</v>
       </c>
       <c r="P29">
-        <v>0.0468446786947135</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00864722559740786</v>
+      </c>
+      <c r="Q29">
+        <v>0.0374240583232078</v>
       </c>
     </row>
     <row r="30">
@@ -16468,50 +16358,46 @@
         <v>43209.975</v>
       </c>
       <c r="D30">
-        <v>0.0940947812544816</v>
+        <v>0.0406863444080042</v>
       </c>
       <c r="E30">
-        <v>0.0777243107517056</v>
+        <v>0.0268358762298588</v>
       </c>
       <c r="F30">
-        <v>0.266678884477182</v>
+        <v>0.0777970301940918</v>
       </c>
       <c r="G30">
-        <v>2.40121039956031</v>
+        <v>0.82915870755264</v>
       </c>
       <c r="H30">
-        <v>0.36731596851883</v>
+        <v>0.130557536004563</v>
       </c>
       <c r="I30">
-        <v>0.0525435155684859</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.016188982366082</v>
+      </c>
+      <c r="J30">
+        <v>0.00385949902561909</v>
       </c>
       <c r="K30">
-        <v>0.101802917640525</v>
+        <v>0.0501606339687299</v>
       </c>
       <c r="L30">
-        <v>0.0545294562891221</v>
+        <v>0.0366031270079246</v>
       </c>
       <c r="M30">
-        <v>0.301057590716831</v>
+        <v>0.247286891311784</v>
       </c>
       <c r="N30">
-        <v>2.38834601950454</v>
+        <v>0.850375058143071</v>
       </c>
       <c r="O30">
-        <v>0.345791879624813</v>
+        <v>0.128742771471407</v>
       </c>
       <c r="P30">
-        <v>0.0726329919574944</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.013407581923324</v>
+      </c>
+      <c r="Q30">
+        <v>0.00638252302420218</v>
       </c>
     </row>
     <row r="31">
@@ -16529,50 +16415,46 @@
         <v>43209.9826388889</v>
       </c>
       <c r="D31">
-        <v>0.080068338116405</v>
+        <v>0.0346213460231135</v>
       </c>
       <c r="E31">
-        <v>0.0748347727123807</v>
+        <v>0.0258382053025153</v>
       </c>
       <c r="F31">
-        <v>0.268509698386935</v>
+        <v>0.0783311252923822</v>
       </c>
       <c r="G31">
-        <v>2.03275479267469</v>
+        <v>0.701927801484704</v>
       </c>
       <c r="H31">
-        <v>0.352714886074738</v>
+        <v>0.125367777022434</v>
       </c>
       <c r="I31">
-        <v>0.0526538515544385</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0162229775662814</v>
+      </c>
+      <c r="J31">
+        <v>0.00487287559483345</v>
       </c>
       <c r="K31">
-        <v>0.0764589323029009</v>
+        <v>0.037673070730922</v>
       </c>
       <c r="L31">
-        <v>0.0443870563843462</v>
+        <v>0.0297949983900397</v>
       </c>
       <c r="M31">
-        <v>0.242111840179648</v>
+        <v>0.198869206935607</v>
       </c>
       <c r="N31">
-        <v>1.90265474545791</v>
+        <v>0.677443773465708</v>
       </c>
       <c r="O31">
-        <v>0.316936000716066</v>
+        <v>0.117999356015885</v>
       </c>
       <c r="P31">
-        <v>0.0922169093095092</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0170226467747129</v>
+      </c>
+      <c r="Q31">
+        <v>0.0344316840184609</v>
       </c>
     </row>
     <row r="32">
@@ -16590,50 +16472,46 @@
         <v>43209.9895833333</v>
       </c>
       <c r="D32">
-        <v>0.126221739137393</v>
+        <v>0.0545779593921594</v>
       </c>
       <c r="E32">
-        <v>0.092447333964115</v>
+        <v>0.0319192951091815</v>
       </c>
       <c r="F32">
-        <v>0.391011045759784</v>
+        <v>0.114067891774912</v>
       </c>
       <c r="G32">
-        <v>2.59220855314194</v>
+        <v>0.895112021013919</v>
       </c>
       <c r="H32">
-        <v>0.377032036218875</v>
+        <v>0.134010981994637</v>
       </c>
       <c r="I32">
-        <v>0.0798083680665755</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0245894521772443</v>
+      </c>
+      <c r="J32">
+        <v>0.0067271102030392</v>
       </c>
       <c r="K32">
-        <v>0.128035396909197</v>
+        <v>0.0630859785579147</v>
       </c>
       <c r="L32">
-        <v>0.0488544834246549</v>
+        <v>0.0327937775909186</v>
       </c>
       <c r="M32">
-        <v>0.340841828076357</v>
+        <v>0.279965424201197</v>
       </c>
       <c r="N32">
-        <v>2.66519022856317</v>
+        <v>0.948945955513979</v>
       </c>
       <c r="O32">
-        <v>0.33278896452072</v>
+        <v>0.123901618667227</v>
       </c>
       <c r="P32">
-        <v>0.0796026451602949</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0146941349590078</v>
+      </c>
+      <c r="Q32">
+        <v>0.0326676476771074</v>
       </c>
     </row>
     <row r="33">
@@ -16651,50 +16529,46 @@
         <v>43209.9965277778</v>
       </c>
       <c r="D33">
-        <v>0.0749252587252907</v>
+        <v>0.0323974915581283</v>
       </c>
       <c r="E33">
-        <v>0.0629134851724901</v>
+        <v>0.0217221418234443</v>
       </c>
       <c r="F33">
-        <v>0.22793393501828</v>
+        <v>0.0664941405452465</v>
       </c>
       <c r="G33">
-        <v>1.90738287003</v>
+        <v>0.658635792853353</v>
       </c>
       <c r="H33">
-        <v>0.321367474166192</v>
+        <v>0.114225759768452</v>
       </c>
       <c r="I33">
-        <v>0.0509625637692755</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0157018813314038</v>
+      </c>
+      <c r="J33">
+        <v>0.00441389290882779</v>
       </c>
       <c r="K33">
-        <v>0.0811903874843915</v>
+        <v>0.0400043672890053</v>
       </c>
       <c r="L33">
-        <v>0.0427129572783772</v>
+        <v>0.0286712523201223</v>
       </c>
       <c r="M33">
-        <v>0.244402779327294</v>
+        <v>0.20075097054986</v>
       </c>
       <c r="N33">
-        <v>2.02946412217704</v>
+        <v>0.722594488738945</v>
       </c>
       <c r="O33">
-        <v>0.348033793231374</v>
+        <v>0.129577464788732</v>
       </c>
       <c r="P33">
-        <v>0.0735793244925781</v>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0135822688066383</v>
+      </c>
+      <c r="Q33">
+        <v>0.0134949230265313</v>
       </c>
     </row>
     <row r="34">
@@ -16712,50 +16586,46 @@
         <v>43210.0034722222</v>
       </c>
       <c r="D34">
-        <v>0.0771695777968747</v>
+        <v>0.0333679294239751</v>
       </c>
       <c r="E34">
-        <v>0.0667332620835743</v>
+        <v>0.0230409963674105</v>
       </c>
       <c r="F34">
-        <v>0.223207285627155</v>
+        <v>0.0651152564010474</v>
       </c>
       <c r="G34">
-        <v>2.19483517245345</v>
+        <v>0.757895557680332</v>
       </c>
       <c r="H34">
-        <v>0.326524839866134</v>
+        <v>0.116058876256074</v>
       </c>
       <c r="I34">
-        <v>0.05645446744097</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0173939708449309</v>
+      </c>
+      <c r="J34">
+        <v>0.00465160164174176</v>
       </c>
       <c r="K34">
-        <v>0.0687556285090255</v>
+        <v>0.0338774761555393</v>
       </c>
       <c r="L34">
-        <v>0.0428179753582839</v>
+        <v>0.0287417461482025</v>
       </c>
       <c r="M34">
-        <v>0.223559745819539</v>
+        <v>0.183630628394169</v>
       </c>
       <c r="N34">
-        <v>1.8751294114687</v>
+        <v>0.66764332692223</v>
       </c>
       <c r="O34">
-        <v>0.310072197909975</v>
+        <v>0.115443873807777</v>
       </c>
       <c r="P34">
-        <v>0.0414346507804559</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0076485693323551</v>
+      </c>
+      <c r="Q34">
+        <v>0.0268892149669846</v>
       </c>
     </row>
     <row r="35">
@@ -16773,50 +16643,46 @@
         <v>43210.4881944444</v>
       </c>
       <c r="D35">
-        <v>0.0690899609374774</v>
+        <v>0.029874323616687</v>
       </c>
       <c r="E35">
-        <v>0.0681984064209747</v>
+        <v>0.0235468668179438</v>
       </c>
       <c r="F35">
-        <v>0.210249650999046</v>
+        <v>0.0613351839953027</v>
       </c>
       <c r="G35">
-        <v>1.54046470442595</v>
+        <v>0.531935778549921</v>
       </c>
       <c r="H35">
-        <v>0.266108138232454</v>
+        <v>0.0945845697329377</v>
       </c>
       <c r="I35">
-        <v>0.0384247063547963</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0118388898586141</v>
+      </c>
+      <c r="J35">
+        <v>0.00259643916913947</v>
       </c>
       <c r="K35">
-        <v>0.0688360205664993</v>
+        <v>0.0339170871673098</v>
       </c>
       <c r="L35">
-        <v>0.0464302761478407</v>
+        <v>0.031166518254675</v>
       </c>
       <c r="M35">
-        <v>0.227021402755386</v>
+        <v>0.186474012546733</v>
       </c>
       <c r="N35">
-        <v>1.60050004424059</v>
+        <v>0.569861028119125</v>
       </c>
       <c r="O35">
-        <v>0.280629672088173</v>
+        <v>0.104482042149006</v>
       </c>
       <c r="P35">
-        <v>0.0747177840228817</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0137924210942911</v>
+      </c>
+      <c r="Q35">
+        <v>0.00926090828138914</v>
       </c>
     </row>
     <row r="36">
@@ -16834,50 +16700,46 @@
         <v>43210.4951388889</v>
       </c>
       <c r="D36">
-        <v>0.0484456687575581</v>
+        <v>0.0209477841158403</v>
       </c>
       <c r="E36">
-        <v>0.0456237756173505</v>
+        <v>0.0157525230364195</v>
       </c>
       <c r="F36">
-        <v>0.383786417030109</v>
+        <v>0.111960283365923</v>
       </c>
       <c r="G36">
-        <v>2.12337728705411</v>
+        <v>0.733220532154454</v>
       </c>
       <c r="H36">
-        <v>0.23174164440106</v>
+        <v>0.0823694602896007</v>
       </c>
       <c r="I36">
-        <v>0.0569232122843044</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0175383940324704</v>
+      </c>
+      <c r="J36">
+        <v>0.00400175515577007</v>
       </c>
       <c r="K36">
-        <v>0.0522209142932547</v>
+        <v>0.0257304429783223</v>
       </c>
       <c r="L36">
-        <v>0.0370962840181107</v>
+        <v>0.0249010367577757</v>
       </c>
       <c r="M36">
-        <v>0.368581391158097</v>
+        <v>0.302750534201238</v>
       </c>
       <c r="N36">
-        <v>1.99288386589811</v>
+        <v>0.709570020213007</v>
       </c>
       <c r="O36">
-        <v>0.242972598315643</v>
+        <v>0.0904618284637135</v>
       </c>
       <c r="P36">
-        <v>0.0588193973142872</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0108576814326107</v>
+      </c>
+      <c r="Q36">
+        <v>0.0136098020735156</v>
       </c>
     </row>
     <row r="37">
@@ -16895,52 +16757,48 @@
         <v>43210.5020833333</v>
       </c>
       <c r="D37">
-        <v>0.0584765086788487</v>
+        <v>0.0252850938188665</v>
       </c>
       <c r="E37">
-        <v>0.0660941866222133</v>
+        <v>0.0228203427544449</v>
       </c>
       <c r="F37">
-        <v>0.205673632580583</v>
+        <v>0.0600002427465126</v>
       </c>
       <c r="G37">
-        <v>2.002850072419</v>
+        <v>0.691601443077516</v>
       </c>
       <c r="H37">
-        <v>0.237889560319857</v>
+        <v>0.084554654571129</v>
       </c>
       <c r="I37">
-        <v>0.0590115317378623</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0181818181818182</v>
+      </c>
+      <c r="J37">
+        <v>0.00433898885299215</v>
       </c>
       <c r="K37">
-        <v>0.0570184939437159</v>
+        <v>0.0280943205798697</v>
       </c>
       <c r="L37">
-        <v>0.0452159673829041</v>
+        <v>0.0303514083860905</v>
       </c>
       <c r="M37">
-        <v>0.187758459827537</v>
+        <v>0.154223667762994</v>
       </c>
       <c r="N37">
-        <v>2.01105028693454</v>
+        <v>0.71603820833104</v>
       </c>
       <c r="O37">
-        <v>0.255801235190761</v>
+        <v>0.0952380952380952</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q37">
+        <v>0.0263510413799431</v>
       </c>
     </row>
     <row r="38">
@@ -16958,50 +16816,46 @@
         <v>43210.5097222222</v>
       </c>
       <c r="D38">
-        <v>0.0676429411389487</v>
+        <v>0.029248635931321</v>
       </c>
       <c r="E38">
-        <v>0.0678655652694358</v>
+        <v>0.0234319467387496</v>
       </c>
       <c r="F38">
-        <v>0.204193679906615</v>
+        <v>0.0595685028167157</v>
       </c>
       <c r="G38">
-        <v>1.87612623892631</v>
+        <v>0.647842607944136</v>
       </c>
       <c r="H38">
-        <v>0.246262377739062</v>
+        <v>0.0875306602592982</v>
       </c>
       <c r="I38">
-        <v>0.0505927068165575</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0155879261150323</v>
+      </c>
+      <c r="J38">
+        <v>0.00529609050407969</v>
       </c>
       <c r="K38">
-        <v>0.0597965174987516</v>
+        <v>0.0294631165429943</v>
       </c>
       <c r="L38">
-        <v>0.0518258233969919</v>
+        <v>0.0347883020515059</v>
       </c>
       <c r="M38">
-        <v>0.204532682724198</v>
+        <v>0.168001913395033</v>
       </c>
       <c r="N38">
-        <v>2.0145502397206</v>
+        <v>0.717284373053252</v>
       </c>
       <c r="O38">
-        <v>0.288932017168927</v>
+        <v>0.107573112178088</v>
       </c>
       <c r="P38">
-        <v>0.0497749102991763</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00918812745525971</v>
+      </c>
+      <c r="Q38">
+        <v>0.00903535573985159</v>
       </c>
     </row>
     <row r="39">
@@ -17019,52 +16873,48 @@
         <v>43210.5166666667</v>
       </c>
       <c r="D39">
-        <v>0.0624776295351192</v>
+        <v>0.0270151683140289</v>
       </c>
       <c r="E39">
-        <v>0.0701404741750915</v>
+        <v>0.0242174046377769</v>
       </c>
       <c r="F39">
-        <v>0.197775684687935</v>
+        <v>0.0576962099698635</v>
       </c>
       <c r="G39">
-        <v>1.7514006658427</v>
+        <v>0.604773789403411</v>
       </c>
       <c r="H39">
-        <v>0.240812685321576</v>
+        <v>0.0855936401594678</v>
       </c>
       <c r="I39">
-        <v>0.0483732800915048</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0149041070038452</v>
+      </c>
+      <c r="J39">
+        <v>0.00468967469510038</v>
       </c>
       <c r="K39">
-        <v>0.077713526157862</v>
+        <v>0.0382912379170564</v>
       </c>
       <c r="L39">
-        <v>0.0516247972976256</v>
+        <v>0.0346533624363372</v>
       </c>
       <c r="M39">
-        <v>0.210872522095779</v>
+        <v>0.173209419260875</v>
       </c>
       <c r="N39">
-        <v>1.92009801547546</v>
+        <v>0.683654482313689</v>
       </c>
       <c r="O39">
-        <v>0.274760996215034</v>
+        <v>0.102297058517826</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q39">
+        <v>0.0327616671863632</v>
       </c>
     </row>
     <row r="40">
@@ -17082,52 +16932,48 @@
         <v>43210.5236111111</v>
       </c>
       <c r="D40">
-        <v>0.0302935877266671</v>
+        <v>0.0130988703854664</v>
       </c>
       <c r="E40">
-        <v>0.0309764404915947</v>
+        <v>0.0106952369861418</v>
       </c>
       <c r="F40">
-        <v>0.313332229704664</v>
+        <v>0.0914070005313882</v>
       </c>
       <c r="G40">
-        <v>2.03123538618265</v>
+        <v>0.701403137288925</v>
       </c>
       <c r="H40">
-        <v>0.24985796702198</v>
+        <v>0.0888086642599278</v>
       </c>
       <c r="I40">
-        <v>0.0445249463292896</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0137184115523466</v>
+      </c>
+      <c r="J40">
+        <v>0.00426225689996506</v>
       </c>
       <c r="K40">
-        <v>0.0292317033239037</v>
+        <v>0.0144031311154599</v>
       </c>
       <c r="L40">
-        <v>0.02740437691204</v>
+        <v>0.0183953033268102</v>
       </c>
       <c r="M40">
-        <v>0.286787629942592</v>
+        <v>0.235565631500329</v>
       </c>
       <c r="N40">
-        <v>2.18495333245354</v>
+        <v>0.7779567122818</v>
       </c>
       <c r="O40">
-        <v>0.235897796617014</v>
+        <v>0.0878277886497065</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q40">
+        <v>0.0237181996086106</v>
       </c>
     </row>
     <row r="41">
@@ -17145,50 +16991,46 @@
         <v>43210.5305555556</v>
       </c>
       <c r="D41">
-        <v>0.0516702986779232</v>
+        <v>0.0223421059026512</v>
       </c>
       <c r="E41">
-        <v>0.0524626343434587</v>
+        <v>0.0181137760929261</v>
       </c>
       <c r="F41">
-        <v>0.328440869740358</v>
+        <v>0.0958145760593605</v>
       </c>
       <c r="G41">
-        <v>2.08296588263613</v>
+        <v>0.719266124883964</v>
       </c>
       <c r="H41">
-        <v>0.278082945492498</v>
+        <v>0.0988408544142305</v>
       </c>
       <c r="I41">
-        <v>0.0518184661210579</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0159655901436174</v>
+      </c>
+      <c r="J41">
+        <v>0.00567179412407961</v>
       </c>
       <c r="K41">
-        <v>0.0614629017446757</v>
+        <v>0.03028418230563</v>
       </c>
       <c r="L41">
-        <v>0.0362651931853962</v>
+        <v>0.024343163538874</v>
       </c>
       <c r="M41">
-        <v>0.381299126090911</v>
+        <v>0.313196805057836</v>
       </c>
       <c r="N41">
-        <v>2.24253180851961</v>
+        <v>0.798457636156568</v>
       </c>
       <c r="O41">
-        <v>0.319947681128571</v>
+        <v>0.119120643431635</v>
       </c>
       <c r="P41">
-        <v>0.0870254841232752</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0160643431635389</v>
+      </c>
+      <c r="Q41">
+        <v>0.0336300268096515</v>
       </c>
     </row>
     <row r="42">
@@ -17206,50 +17048,46 @@
         <v>43210.5381944444</v>
       </c>
       <c r="D42">
-        <v>0.0844749735471972</v>
+        <v>0.0365267639902676</v>
       </c>
       <c r="E42">
-        <v>0.0645380328515182</v>
+        <v>0.0222830494728305</v>
       </c>
       <c r="F42">
-        <v>0.213068907441676</v>
+        <v>0.0621576329830511</v>
       </c>
       <c r="G42">
-        <v>2.26998100540204</v>
+        <v>0.783844063374392</v>
       </c>
       <c r="H42">
-        <v>0.32251609799863</v>
+        <v>0.11463402270884</v>
       </c>
       <c r="I42">
-        <v>0.0542090675141631</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0167021492295215</v>
+      </c>
+      <c r="J42">
+        <v>0.00467862935928629</v>
       </c>
       <c r="K42">
-        <v>0.0749640149404872</v>
+        <v>0.0369364906370752</v>
       </c>
       <c r="L42">
-        <v>0.0475869355473006</v>
+        <v>0.0319429307440801</v>
       </c>
       <c r="M42">
-        <v>0.243244969119661</v>
+        <v>0.199799952220467</v>
       </c>
       <c r="N42">
-        <v>1.9299668664521</v>
+        <v>0.687168305124344</v>
       </c>
       <c r="O42">
-        <v>0.327482859434299</v>
+        <v>0.121926087387298</v>
       </c>
       <c r="P42">
-        <v>0.0751434684952874</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0138709997027643</v>
+      </c>
+      <c r="Q42">
+        <v>0.0164470425047062</v>
       </c>
     </row>
     <row r="43">
@@ -17267,50 +17105,46 @@
         <v>43210.5451388889</v>
       </c>
       <c r="D43">
-        <v>0.0676024585643635</v>
+        <v>0.0292311313688986</v>
       </c>
       <c r="E43">
-        <v>0.066997981505557</v>
+        <v>0.0231323960540113</v>
       </c>
       <c r="F43">
-        <v>0.221188844027831</v>
+        <v>0.0645264255217092</v>
       </c>
       <c r="G43">
-        <v>2.11024772508586</v>
+        <v>0.728686780912028</v>
       </c>
       <c r="H43">
-        <v>0.305311756714338</v>
+        <v>0.10851897027669</v>
       </c>
       <c r="I43">
-        <v>0.0450059059540223</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0138665981896386</v>
+      </c>
+      <c r="J43">
+        <v>0.00394170892983244</v>
       </c>
       <c r="K43">
-        <v>0.065210336557852</v>
+        <v>0.0321306294442981</v>
       </c>
       <c r="L43">
-        <v>0.0373516103002761</v>
+        <v>0.0250724255991572</v>
       </c>
       <c r="M43">
-        <v>0.209885224100612</v>
+        <v>0.172398458635562</v>
       </c>
       <c r="N43">
-        <v>1.88542344453524</v>
+        <v>0.671308536609604</v>
       </c>
       <c r="O43">
-        <v>0.289458937877436</v>
+        <v>0.107769291545957</v>
       </c>
       <c r="P43">
-        <v>0.0113187529346764</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00208936879992977</v>
+      </c>
+      <c r="Q43">
+        <v>0.0255289263453604</v>
       </c>
     </row>
     <row r="44">
@@ -17328,50 +17162,46 @@
         <v>43210.5520833333</v>
       </c>
       <c r="D44">
-        <v>0.0652652400442255</v>
+        <v>0.0282205240174672</v>
       </c>
       <c r="E44">
-        <v>0.075396507846656</v>
+        <v>0.0260321556173085</v>
       </c>
       <c r="F44">
-        <v>0.300441012648377</v>
+        <v>0.0876463038248129</v>
       </c>
       <c r="G44">
-        <v>2.09391309260857</v>
+        <v>0.723046291117507</v>
       </c>
       <c r="H44">
-        <v>0.234043918997396</v>
+        <v>0.0831877729257642</v>
       </c>
       <c r="I44">
-        <v>0.0622326852170033</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0191742755061532</v>
+      </c>
+      <c r="J44">
+        <v>0.00407899960301707</v>
       </c>
       <c r="K44">
-        <v>0.0674897775276413</v>
+        <v>0.0332537623248573</v>
       </c>
       <c r="L44">
-        <v>0.0472823159459378</v>
+        <v>0.0317384535547483</v>
       </c>
       <c r="M44">
-        <v>0.290636896704847</v>
+        <v>0.238727396029173</v>
       </c>
       <c r="N44">
-        <v>2.0567127987926</v>
+        <v>0.732296430908147</v>
       </c>
       <c r="O44">
-        <v>0.260367692113731</v>
+        <v>0.0969382459782045</v>
       </c>
       <c r="P44">
-        <v>0.0683699608175469</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0126206538661131</v>
+      </c>
+      <c r="Q44">
+        <v>0.0263207057602491</v>
       </c>
     </row>
     <row r="45">
@@ -17389,50 +17219,46 @@
         <v>43210.5590277778</v>
       </c>
       <c r="D45">
-        <v>0.0679918953986699</v>
+        <v>0.0293995228668596</v>
       </c>
       <c r="E45">
-        <v>0.0800186394044529</v>
+        <v>0.0276280391858281</v>
       </c>
       <c r="F45">
-        <v>0.20081307861864</v>
+        <v>0.0585822952248009</v>
       </c>
       <c r="G45">
-        <v>2.31179162313431</v>
+        <v>0.798281631097406</v>
       </c>
       <c r="H45">
-        <v>0.461195309605849</v>
+        <v>0.163925689051317</v>
       </c>
       <c r="I45">
-        <v>0.063525535003126</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0195726105273844</v>
+      </c>
+      <c r="J45">
+        <v>0.00689305111415664</v>
       </c>
       <c r="K45">
-        <v>0.0759236310729391</v>
+        <v>0.037409315529387</v>
       </c>
       <c r="L45">
-        <v>0.0589258136680723</v>
+        <v>0.0395542003995374</v>
       </c>
       <c r="M45">
-        <v>0.226332087884255</v>
+        <v>0.185907813464322</v>
       </c>
       <c r="N45">
-        <v>2.28717332155349</v>
+        <v>0.814352330196614</v>
       </c>
       <c r="O45">
-        <v>0.458901122431118</v>
+        <v>0.170854799705604</v>
       </c>
       <c r="P45">
-        <v>0.0682360865593581</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0125959415413731</v>
+      </c>
+      <c r="Q45">
+        <v>0.0344022710545684</v>
       </c>
     </row>
     <row r="46">
@@ -17450,50 +17276,46 @@
         <v>43210.5666666667</v>
       </c>
       <c r="D46">
-        <v>0.0358694771085683</v>
+        <v>0.0155098707911043</v>
       </c>
       <c r="E46">
-        <v>0.0383129126980467</v>
+        <v>0.0132283010711369</v>
       </c>
       <c r="F46">
-        <v>0.166435022646948</v>
+        <v>0.0485533397501776</v>
       </c>
       <c r="G46">
-        <v>2.2638212980233</v>
+        <v>0.781717063170661</v>
       </c>
       <c r="H46">
-        <v>0.271370937450398</v>
+        <v>0.0964551611508718</v>
       </c>
       <c r="I46">
-        <v>0.0497157769785406</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0153177386041597</v>
+      </c>
+      <c r="J46">
+        <v>0.00679667611316586</v>
       </c>
       <c r="K46">
-        <v>0.0319491258356823</v>
+        <v>0.0157420675537359</v>
       </c>
       <c r="L46">
-        <v>0.0280871737417851</v>
+        <v>0.0188536335721597</v>
       </c>
       <c r="M46">
-        <v>0.210651717473175</v>
+        <v>0.173028051674092</v>
       </c>
       <c r="N46">
-        <v>2.31965314328678</v>
+        <v>0.825916831349028</v>
       </c>
       <c r="O46">
-        <v>0.25742977529607</v>
+        <v>0.0958444216990788</v>
       </c>
       <c r="P46">
-        <v>0.0820636116927873</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0151484135107472</v>
+      </c>
+      <c r="Q46">
+        <v>0.00552712384851587</v>
       </c>
     </row>
     <row r="47">
@@ -17511,50 +17333,46 @@
         <v>43210.5736111111</v>
       </c>
       <c r="D47">
-        <v>0.0291366383843001</v>
+        <v>0.0125986084285482</v>
       </c>
       <c r="E47">
-        <v>0.0412609051674895</v>
+        <v>0.0142461545621669</v>
       </c>
       <c r="F47">
-        <v>0.125335769014732</v>
+        <v>0.0365636395455716</v>
       </c>
       <c r="G47">
-        <v>1.80139363127882</v>
+        <v>0.622036792518558</v>
       </c>
       <c r="H47">
-        <v>0.248301436037389</v>
+        <v>0.0882554161915621</v>
       </c>
       <c r="I47">
-        <v>0.0439568829481063</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0135433877085612</v>
+      </c>
+      <c r="J47">
+        <v>0.00391873967374863</v>
       </c>
       <c r="K47">
-        <v>0.0414614524540203</v>
+        <v>0.0204290091930541</v>
       </c>
       <c r="L47">
-        <v>0.0345122550295079</v>
+        <v>0.0231664964249234</v>
       </c>
       <c r="M47">
-        <v>0.155011267918664</v>
+        <v>0.127325321612499</v>
       </c>
       <c r="N47">
-        <v>1.83023854466824</v>
+        <v>0.651659850008172</v>
       </c>
       <c r="O47">
-        <v>0.259373046105018</v>
+        <v>0.0965679264555669</v>
       </c>
       <c r="P47">
-        <v>0.0364105028535015</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00672114402451481</v>
+      </c>
+      <c r="Q47">
+        <v>0.0132788559754852</v>
       </c>
     </row>
     <row r="48">
@@ -17572,50 +17390,46 @@
         <v>43210.5805555556</v>
       </c>
       <c r="D48">
-        <v>0.0932162490791555</v>
+        <v>0.040306469326918</v>
       </c>
       <c r="E48">
-        <v>0.113270275965401</v>
+        <v>0.0391088332200199</v>
       </c>
       <c r="F48">
-        <v>0.204853094219499</v>
+        <v>0.0597608707850701</v>
       </c>
       <c r="G48">
-        <v>2.10353972251576</v>
+        <v>0.72637044963914</v>
       </c>
       <c r="H48">
-        <v>0.359563129163348</v>
+        <v>0.127801893206422</v>
       </c>
       <c r="I48">
-        <v>0.0526878756251653</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0162334605930652</v>
+      </c>
+      <c r="J48">
+        <v>0.00423095026410753</v>
       </c>
       <c r="K48">
-        <v>0.0961277520877194</v>
+        <v>0.0473643496518952</v>
       </c>
       <c r="L48">
-        <v>0.0655891073218117</v>
+        <v>0.0440269643054481</v>
       </c>
       <c r="M48">
-        <v>0.196286555359423</v>
+        <v>0.161228594055896</v>
       </c>
       <c r="N48">
-        <v>2.04677835721438</v>
+        <v>0.728759254441375</v>
       </c>
       <c r="O48">
-        <v>0.376128734109205</v>
+        <v>0.14003757321251</v>
       </c>
       <c r="P48">
-        <v>0.076389481325424</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0141010056359819</v>
+      </c>
+      <c r="Q48">
+        <v>0.0262128411979224</v>
       </c>
     </row>
     <row r="49">
@@ -17633,50 +17447,46 @@
         <v>43210.5875</v>
       </c>
       <c r="D49">
-        <v>0.0650126111184716</v>
+        <v>0.028111287911664</v>
       </c>
       <c r="E49">
-        <v>0.0692963001688843</v>
+        <v>0.023925936641111</v>
       </c>
       <c r="F49">
-        <v>0.240179505759926</v>
+        <v>0.0700664857596017</v>
       </c>
       <c r="G49">
-        <v>2.77794516718745</v>
+        <v>0.959248479391485</v>
       </c>
       <c r="H49">
-        <v>0.330113705915029</v>
+        <v>0.117334490573316</v>
       </c>
       <c r="I49">
-        <v>0.0583115540722317</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0179661507305077</v>
+      </c>
+      <c r="J49">
+        <v>0.00573315974733594</v>
       </c>
       <c r="K49">
-        <v>0.066752475556561</v>
+        <v>0.0328904767221168</v>
       </c>
       <c r="L49">
-        <v>0.047235524752813</v>
+        <v>0.0317070447694541</v>
       </c>
       <c r="M49">
-        <v>0.268359852092836</v>
+        <v>0.220429165791558</v>
       </c>
       <c r="N49">
-        <v>2.78943889430876</v>
+        <v>0.993184924865468</v>
       </c>
       <c r="O49">
-        <v>0.396604721833723</v>
+        <v>0.147661047225634</v>
       </c>
       <c r="P49">
-        <v>0.0681019098383408</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0125711733839455</v>
+      </c>
+      <c r="Q49">
+        <v>0.0257675561013732</v>
       </c>
     </row>
     <row r="50">
@@ -17694,50 +17504,46 @@
         <v>43210.5951388889</v>
       </c>
       <c r="D50">
-        <v>0.0278319085945903</v>
+        <v>0.0120344465815702</v>
       </c>
       <c r="E50">
-        <v>0.0435784598549164</v>
+        <v>0.015046336772163</v>
       </c>
       <c r="F50">
-        <v>0.161428827358714</v>
+        <v>0.0470929049401258</v>
       </c>
       <c r="G50">
-        <v>2.20788392574383</v>
+        <v>0.76240140498776</v>
       </c>
       <c r="H50">
-        <v>0.239454899508284</v>
+        <v>0.0851110333974471</v>
       </c>
       <c r="I50">
-        <v>0.0475296149794594</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0146441685609372</v>
+      </c>
+      <c r="J50">
+        <v>0.00580521070117153</v>
       </c>
       <c r="K50">
-        <v>0.0295191744242232</v>
+        <v>0.0145447747242475</v>
       </c>
       <c r="L50">
-        <v>0.0342845484284726</v>
+        <v>0.023013647410731</v>
       </c>
       <c r="M50">
-        <v>0.187253962331864</v>
+        <v>0.153809276559362</v>
       </c>
       <c r="N50">
-        <v>2.12056298419352</v>
+        <v>0.755030408597869</v>
       </c>
       <c r="O50">
-        <v>0.274516474187191</v>
+        <v>0.102206019816788</v>
       </c>
       <c r="P50">
-        <v>0.0259269149167897</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00478594129743877</v>
+      </c>
+      <c r="Q50">
+        <v>0.0149934567208824</v>
       </c>
     </row>
     <row r="51">
@@ -17755,52 +17561,48 @@
         <v>43210.6020833333</v>
       </c>
       <c r="D51">
-        <v>0.0293406553375578</v>
+        <v>0.0126868248409214</v>
       </c>
       <c r="E51">
-        <v>0.0376589740968645</v>
+        <v>0.0130025156612243</v>
       </c>
       <c r="F51">
-        <v>0.138814199082004</v>
+        <v>0.0404956412597988</v>
       </c>
       <c r="G51">
-        <v>1.64582434384055</v>
+        <v>0.568317372791397</v>
       </c>
       <c r="H51">
-        <v>0.199340360824768</v>
+        <v>0.0708528584817245</v>
       </c>
       <c r="I51">
-        <v>0.0419932847933839</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0129383909633503</v>
+      </c>
+      <c r="J51">
+        <v>0.00476002564987915</v>
       </c>
       <c r="K51">
-        <v>0.0348452805752009</v>
+        <v>0.0171690694626474</v>
       </c>
       <c r="L51">
-        <v>0.0355027456309064</v>
+        <v>0.0238313674093491</v>
       </c>
       <c r="M51">
-        <v>0.163788647854991</v>
+        <v>0.134535008613409</v>
       </c>
       <c r="N51">
-        <v>1.86186929151809</v>
+        <v>0.662922036463521</v>
       </c>
       <c r="O51">
-        <v>0.246942063971999</v>
+        <v>0.0919397116644823</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q51">
+        <v>0.0239842726081258</v>
       </c>
     </row>
     <row r="52">
@@ -17818,50 +17620,46 @@
         <v>43210.6090277778</v>
       </c>
       <c r="D52">
-        <v>0.0729987695076021</v>
+        <v>0.0315644825137989</v>
       </c>
       <c r="E52">
-        <v>0.0646478274200853</v>
+        <v>0.0223209582484025</v>
       </c>
       <c r="F52">
-        <v>0.242821244168448</v>
+        <v>0.0708371482105702</v>
       </c>
       <c r="G52">
-        <v>2.11578830069338</v>
+        <v>0.730599989563246</v>
       </c>
       <c r="H52">
-        <v>0.325282608897469</v>
+        <v>0.115617341914207</v>
       </c>
       <c r="I52">
-        <v>0.047707396624483</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.014698944186153</v>
+      </c>
+      <c r="J52">
+        <v>0.00428738291001535</v>
       </c>
       <c r="K52">
-        <v>0.078940153596617</v>
+        <v>0.0388956254080776</v>
       </c>
       <c r="L52">
-        <v>0.0419647485827164</v>
+        <v>0.028169014084507</v>
       </c>
       <c r="M52">
-        <v>0.224971838576928</v>
+        <v>0.184790512878022</v>
       </c>
       <c r="N52">
-        <v>1.93427147631586</v>
+        <v>0.688700969500979</v>
       </c>
       <c r="O52">
-        <v>0.296274664465464</v>
+        <v>0.110306874358735</v>
       </c>
       <c r="P52">
-        <v>0.0637686956663121</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0117712899916053</v>
+      </c>
+      <c r="Q52">
+        <v>0.0176849174517303</v>
       </c>
     </row>
     <row r="53">
@@ -17879,50 +17677,46 @@
         <v>43211.11875</v>
       </c>
       <c r="D53">
-        <v>0.0791729780679365</v>
+        <v>0.0342341946124244</v>
       </c>
       <c r="E53">
-        <v>0.0536138892581822</v>
+        <v>0.0185112699285322</v>
       </c>
       <c r="F53">
-        <v>0.131468457495783</v>
+        <v>0.0383527011425056</v>
       </c>
       <c r="G53">
-        <v>1.02197519503876</v>
+        <v>0.35289686902254</v>
       </c>
       <c r="H53">
-        <v>0.180109739797749</v>
+        <v>0.0640175920835624</v>
       </c>
       <c r="I53">
-        <v>0.0421379320196122</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0129829576690489</v>
+      </c>
+      <c r="J53">
+        <v>0.0028455195162177</v>
       </c>
       <c r="K53">
-        <v>0.106011785226456</v>
+        <v>0.0522344396247352</v>
       </c>
       <c r="L53">
-        <v>0.0370596185330045</v>
+        <v>0.0248764248966004</v>
       </c>
       <c r="M53">
-        <v>0.1404863491143</v>
+        <v>0.115394640811078</v>
       </c>
       <c r="N53">
-        <v>1.1730912361045</v>
+        <v>0.417681324214668</v>
       </c>
       <c r="O53">
-        <v>0.222773897258687</v>
+        <v>0.0829415918490871</v>
       </c>
       <c r="P53">
-        <v>0.0713709612157884</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0131746191869263</v>
+      </c>
+      <c r="Q53">
+        <v>0.00375264803792999</v>
       </c>
     </row>
     <row r="54">
@@ -17940,52 +17734,48 @@
         <v>43211.1256944444</v>
       </c>
       <c r="D54">
-        <v>0.0847545326205199</v>
+        <v>0.0366476446234754</v>
       </c>
       <c r="E54">
-        <v>0.0586321635902287</v>
+        <v>0.0202439297303346</v>
       </c>
       <c r="F54">
-        <v>0.134804145692943</v>
+        <v>0.039325806440667</v>
       </c>
       <c r="G54">
-        <v>1.03022636571048</v>
+        <v>0.355746069580396</v>
       </c>
       <c r="H54">
-        <v>0.182639154691921</v>
+        <v>0.0649166386930737</v>
       </c>
       <c r="I54">
-        <v>0.0390914255560583</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0120443101711984</v>
+      </c>
+      <c r="J54">
+        <v>0.00259147364887546</v>
       </c>
       <c r="K54">
-        <v>0.0923931911016457</v>
+        <v>0.0455242457433038</v>
       </c>
       <c r="L54">
-        <v>0.0441154262781783</v>
+        <v>0.0296126655381858</v>
       </c>
       <c r="M54">
-        <v>0.159298848812855</v>
+        <v>0.130847114728719</v>
       </c>
       <c r="N54">
-        <v>1.1775099912614</v>
+        <v>0.419254630235985</v>
       </c>
       <c r="O54">
-        <v>0.205876312249667</v>
+        <v>0.0766504032659564</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q54">
+        <v>0.00382355869760032</v>
       </c>
     </row>
     <row r="55">
@@ -18003,52 +17793,48 @@
         <v>43211.1333333333</v>
       </c>
       <c r="D55">
-        <v>0.0792811416163735</v>
+        <v>0.0342809642560266</v>
       </c>
       <c r="E55">
-        <v>0.0550486506021239</v>
+        <v>0.0190066500415628</v>
       </c>
       <c r="F55">
-        <v>0.130327990705516</v>
+        <v>0.0380199979009581</v>
       </c>
       <c r="G55">
-        <v>1.00079416684315</v>
+        <v>0.345582876893184</v>
       </c>
       <c r="H55">
-        <v>0.178991465211279</v>
+        <v>0.0636201163757274</v>
       </c>
       <c r="I55">
-        <v>0.0389584027483045</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0120033250207814</v>
+      </c>
+      <c r="J55">
+        <v>0.00223607647547797</v>
       </c>
       <c r="K55">
-        <v>0.0900639018307974</v>
+        <v>0.04437655146076</v>
       </c>
       <c r="L55">
-        <v>0.0406217484180299</v>
+        <v>0.0272675195722742</v>
       </c>
       <c r="M55">
-        <v>0.16132124405821</v>
+        <v>0.132508297999457</v>
       </c>
       <c r="N55">
-        <v>1.15717110953733</v>
+        <v>0.412012933435173</v>
       </c>
       <c r="O55">
-        <v>0.211303445376214</v>
+        <v>0.0786709948443765</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q55">
+        <v>0.010273057093756</v>
       </c>
     </row>
     <row r="56">
@@ -18066,50 +17852,46 @@
         <v>43211.1402777778</v>
       </c>
       <c r="D56">
-        <v>0.0852715313647308</v>
+        <v>0.0368711935672641</v>
       </c>
       <c r="E56">
-        <v>0.0549891526987398</v>
+        <v>0.0189861071978153</v>
       </c>
       <c r="F56">
-        <v>0.137960567944851</v>
+        <v>0.0402466152918003</v>
       </c>
       <c r="G56">
-        <v>1.08466503409082</v>
+        <v>0.374544212351806</v>
       </c>
       <c r="H56">
-        <v>0.197798847084881</v>
+        <v>0.0703049480916361</v>
       </c>
       <c r="I56">
-        <v>0.0382534494190972</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.011786124536726</v>
+      </c>
+      <c r="J56">
+        <v>0.0022757320271354</v>
       </c>
       <c r="K56">
-        <v>0.0806766283025495</v>
+        <v>0.0397512263489839</v>
       </c>
       <c r="L56">
-        <v>0.0376874026252138</v>
+        <v>0.0252978276103714</v>
       </c>
       <c r="M56">
-        <v>0.145811243848274</v>
+        <v>0.119768477266062</v>
       </c>
       <c r="N56">
-        <v>0.986291513119167</v>
+        <v>0.351170934180098</v>
       </c>
       <c r="O56">
-        <v>0.187750398533934</v>
+        <v>0.0699018920812894</v>
       </c>
       <c r="P56">
-        <v>0.0503957637920061</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00930273300630694</v>
+      </c>
+      <c r="Q56">
+        <v>0.0289768745620182</v>
       </c>
     </row>
     <row r="57">
@@ -18127,50 +17909,46 @@
         <v>43211.1472222222</v>
       </c>
       <c r="D57">
-        <v>0.105104573732842</v>
+        <v>0.0454469507101086</v>
       </c>
       <c r="E57">
-        <v>0.0300317391289953</v>
+        <v>0.0103690599046636</v>
       </c>
       <c r="F57">
-        <v>0.0972932612705383</v>
+        <v>0.028382925028297</v>
       </c>
       <c r="G57">
-        <v>0.888937017136463</v>
+        <v>0.306957636181958</v>
       </c>
       <c r="H57">
-        <v>0.312650679366437</v>
+        <v>0.111127491932445</v>
       </c>
       <c r="I57">
-        <v>0.0199585744719911</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00614936032892689</v>
+      </c>
+      <c r="J57">
+        <v>0.000602814225105247</v>
       </c>
       <c r="K57">
-        <v>0.101687875577433</v>
+        <v>0.0501039501039501</v>
       </c>
       <c r="L57">
-        <v>0.0196478014982683</v>
+        <v>0.0131886694386694</v>
       </c>
       <c r="M57">
-        <v>0.0963282084345359</v>
+        <v>0.0791234100847343</v>
       </c>
       <c r="N57">
-        <v>0.815598111939029</v>
+        <v>0.290395230087058</v>
       </c>
       <c r="O57">
-        <v>0.278328429467079</v>
+        <v>0.10362525987526</v>
       </c>
       <c r="P57">
-        <v>0.00865811853888115</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00159823284823285</v>
+      </c>
+      <c r="Q57">
+        <v>0.00283264033264033</v>
       </c>
     </row>
     <row r="58">
@@ -18188,30 +17966,28 @@
         <v>43211.1541666667</v>
       </c>
       <c r="D58">
-        <v>0.095824172762645</v>
+        <v>0.041434128903375</v>
       </c>
       <c r="E58">
-        <v>0.0273945622075172</v>
+        <v>0.00945852171170224</v>
       </c>
       <c r="F58">
-        <v>0.14795193191687</v>
+        <v>0.0431613509152646</v>
       </c>
       <c r="G58">
-        <v>0.985278003730968</v>
+        <v>0.340225011645463</v>
       </c>
       <c r="H58">
-        <v>0.28700592175591</v>
+        <v>0.102012406686994</v>
       </c>
       <c r="I58">
-        <v>0.0236554900540189</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00728840290190306</v>
+      </c>
+      <c r="J58">
+        <v>0.000555146672274209</v>
       </c>
       <c r="K58">
-        <v>0.0976273025429321</v>
+        <v>0.0481032125768968</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -18219,23 +17995,21 @@
         </is>
       </c>
       <c r="M58">
-        <v>0.147824167335598</v>
+        <v>0.121421880491815</v>
       </c>
       <c r="N58">
-        <v>0.946579425292387</v>
+        <v>0.337031371185919</v>
       </c>
       <c r="O58">
-        <v>0.267765144635688</v>
+        <v>0.0996924128503076</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q58">
+        <v>0.00639097744360902</v>
       </c>
     </row>
     <row r="59">
@@ -18253,52 +18027,48 @@
         <v>43211.1618055556</v>
       </c>
       <c r="D59">
-        <v>0.0688034487611664</v>
+        <v>0.0297504364794084</v>
       </c>
       <c r="E59">
-        <v>0.0669503475356112</v>
+        <v>0.0231159494710897</v>
       </c>
       <c r="F59">
-        <v>0.20924912631376</v>
+        <v>0.0610433054339246</v>
       </c>
       <c r="G59">
-        <v>2.1002961995076</v>
+        <v>0.725250433106706</v>
       </c>
       <c r="H59">
-        <v>0.304500053148641</v>
+        <v>0.108230461127657</v>
       </c>
       <c r="I59">
-        <v>0.0492528413399671</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0151751052685632</v>
+      </c>
+      <c r="J59">
+        <v>0.00521721269384821</v>
       </c>
       <c r="K59">
-        <v>0.0642038700043216</v>
+        <v>0.0316347202742715</v>
       </c>
       <c r="L59">
-        <v>0.0375397139670868</v>
+        <v>0.0251986909770921</v>
       </c>
       <c r="M59">
-        <v>0.221649943081542</v>
+        <v>0.182061927930668</v>
       </c>
       <c r="N59">
-        <v>1.94679189087233</v>
+        <v>0.69315888647343</v>
       </c>
       <c r="O59">
-        <v>0.28671503570353</v>
+        <v>0.106747701418108</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q59">
+        <v>0.0110331930808789</v>
       </c>
     </row>
     <row r="60">
@@ -18316,50 +18086,46 @@
         <v>43211.16875</v>
       </c>
       <c r="D60">
-        <v>0.0774590702565908</v>
+        <v>0.033493105228228</v>
       </c>
       <c r="E60">
-        <v>0.0600571473260552</v>
+        <v>0.0207359339281764</v>
       </c>
       <c r="F60">
-        <v>0.225106334201766</v>
+        <v>0.0656692572908767</v>
       </c>
       <c r="G60">
-        <v>2.08674284157573</v>
+        <v>0.720570341454662</v>
       </c>
       <c r="H60">
-        <v>0.329427749872687</v>
+        <v>0.117090676695426</v>
       </c>
       <c r="I60">
-        <v>0.0526698554416714</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0162279084629944</v>
+      </c>
+      <c r="J60">
+        <v>0.00472433203057788</v>
       </c>
       <c r="K60">
-        <v>0.0666164274210997</v>
+        <v>0.0328234426833763</v>
       </c>
       <c r="L60">
-        <v>0.0423092988129707</v>
+        <v>0.0284002948765205</v>
       </c>
       <c r="M60">
-        <v>0.215358989697591</v>
+        <v>0.176894576720554</v>
       </c>
       <c r="N60">
-        <v>1.7924638718676</v>
+        <v>0.638210107250276</v>
       </c>
       <c r="O60">
-        <v>0.283243531358204</v>
+        <v>0.105455215628456</v>
       </c>
       <c r="P60">
-        <v>0.0120806153349317</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.00223000368595651</v>
+      </c>
+      <c r="Q60">
+        <v>0.0299668263914486</v>
       </c>
     </row>
     <row r="61">
@@ -18377,52 +18143,48 @@
         <v>43211.1756944444</v>
       </c>
       <c r="D61">
-        <v>0.0741753580312083</v>
+        <v>0.0320732364028002</v>
       </c>
       <c r="E61">
-        <v>0.063945951251376</v>
+        <v>0.0220786214324179</v>
       </c>
       <c r="F61">
-        <v>0.227541745304379</v>
+        <v>0.0663797288059217</v>
       </c>
       <c r="G61">
-        <v>2.01825111061797</v>
+        <v>0.696919554697541</v>
       </c>
       <c r="H61">
-        <v>0.293050392827502</v>
+        <v>0.104160832884581</v>
       </c>
       <c r="I61">
-        <v>0.0454423750054621</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0140010770059235</v>
+      </c>
+      <c r="J61">
+        <v>0.00465266558966074</v>
       </c>
       <c r="K61">
-        <v>0.0773833502898288</v>
+        <v>0.0381285526891124</v>
       </c>
       <c r="L61">
-        <v>0.043166013212019</v>
+        <v>0.0289753680221542</v>
       </c>
       <c r="M61">
-        <v>0.23270444019557</v>
+        <v>0.19114202526299</v>
       </c>
       <c r="N61">
-        <v>1.87030143015503</v>
+        <v>0.66592431516397</v>
       </c>
       <c r="O61">
-        <v>0.29133601980821</v>
+        <v>0.108468153330418</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q61">
+        <v>0.00588835446727882</v>
       </c>
     </row>
     <row r="62">
@@ -18440,30 +18202,28 @@
         <v>43211.1826388889</v>
       </c>
       <c r="D62">
-        <v>0.0809700416668909</v>
+        <v>0.0350112403479621</v>
       </c>
       <c r="E62">
-        <v>0.0656200332695897</v>
+        <v>0.0226566318052976</v>
       </c>
       <c r="F62">
-        <v>0.243546597531922</v>
+        <v>0.0710487522812494</v>
       </c>
       <c r="G62">
-        <v>2.10228572492929</v>
+        <v>0.725937433432705</v>
       </c>
       <c r="H62">
-        <v>0.297623649489814</v>
+        <v>0.105786335646564</v>
       </c>
       <c r="I62">
-        <v>0.0515190109942905</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0158733261655752</v>
+      </c>
+      <c r="J62">
+        <v>0.00415404163815854</v>
       </c>
       <c r="K62">
-        <v>0.0785356302283403</v>
+        <v>0.0386963074604371</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -18471,23 +18231,21 @@
         </is>
       </c>
       <c r="M62">
-        <v>0.242314826266331</v>
+        <v>0.19903593848433</v>
       </c>
       <c r="N62">
-        <v>1.95500465929393</v>
+        <v>0.696083057999247</v>
       </c>
       <c r="O62">
-        <v>0.31463841078315</v>
+        <v>0.117143933685004</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q62">
+        <v>0.00730972117558402</v>
       </c>
     </row>
     <row r="63">
@@ -18505,30 +18263,28 @@
         <v>43211.1902777778</v>
       </c>
       <c r="D63">
-        <v>0.0728211751745046</v>
+        <v>0.0314876911752679</v>
       </c>
       <c r="E63">
-        <v>0.0670359274996896</v>
+        <v>0.023145497669093</v>
       </c>
       <c r="F63">
-        <v>0.243794428311668</v>
+        <v>0.0711210508387177</v>
       </c>
       <c r="G63">
-        <v>2.10253883313491</v>
+        <v>0.726024833884027</v>
       </c>
       <c r="H63">
-        <v>0.289604748954234</v>
+        <v>0.10293612496933</v>
       </c>
       <c r="I63">
-        <v>0.0502227855781627</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0154739510918459</v>
+      </c>
+      <c r="J63">
+        <v>0.00433466917477713</v>
       </c>
       <c r="K63">
-        <v>0.0721374284036221</v>
+        <v>0.0355437665782493</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -18536,21 +18292,19 @@
         </is>
       </c>
       <c r="M63">
-        <v>0.251000516737287</v>
+        <v>0.206170312310763</v>
       </c>
       <c r="N63">
-        <v>1.92495428412209</v>
+        <v>0.685383565829649</v>
       </c>
       <c r="O63">
-        <v>0.262654265629559</v>
+        <v>0.097789566755084</v>
       </c>
       <c r="P63">
-        <v>0.153274831885398</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0282935455349248</v>
+      </c>
+      <c r="Q63">
+        <v>0.0798113763631005</v>
       </c>
     </row>
     <row r="64">
@@ -18568,22 +18322,22 @@
         <v>43211.1972222222</v>
       </c>
       <c r="D64">
-        <v>0.176523938013262</v>
+        <v>0.0763285024154589</v>
       </c>
       <c r="E64">
-        <v>0.0111933669352002</v>
+        <v>0.00386473429951691</v>
       </c>
       <c r="F64">
-        <v>0.187401743046974</v>
+        <v>0.0546698666856703</v>
       </c>
       <c r="G64">
-        <v>0.214072879958117</v>
+        <v>0.073921215942029</v>
       </c>
       <c r="H64">
-        <v>0.21474576380904</v>
+        <v>0.0763285024154589</v>
       </c>
       <c r="I64">
-        <v>0.0282229064833255</v>
+        <v>0.00869565217391304</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -18591,27 +18345,25 @@
         </is>
       </c>
       <c r="K64">
-        <v>0.254845408849414</v>
+        <v>0.125568181818182</v>
       </c>
       <c r="L64">
-        <v>0.0719480845729242</v>
+        <v>0.0482954545454545</v>
       </c>
       <c r="M64">
-        <v>0.207726388052907</v>
+        <v>0.170625203711752</v>
       </c>
       <c r="N64">
-        <v>0.428617497795225</v>
+        <v>0.152610060113636</v>
       </c>
       <c r="O64">
-        <v>0.235017384831512</v>
+        <v>0.0875</v>
       </c>
       <c r="P64">
-        <v>0.378595910654712</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0698863636363636</v>
+      </c>
+      <c r="Q64">
+        <v>0.0465909090909091</v>
       </c>
     </row>
     <row r="65">
@@ -18629,16 +18381,16 @@
         <v>43211.2041666667</v>
       </c>
       <c r="D65">
-        <v>0.000704678290132434</v>
+        <v>0.0003047011027278</v>
       </c>
       <c r="E65">
-        <v>0.000367708681467306</v>
+        <v>0.00012695879280325</v>
       </c>
       <c r="F65">
-        <v>0.00303682630270818</v>
+        <v>0.000885919663377829</v>
       </c>
       <c r="G65">
-        <v>0.00158622297838957</v>
+        <v>0.000547736506094022</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -18646,37 +18398,33 @@
         </is>
       </c>
       <c r="I65">
-        <v>0.000635752500222908</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.000195879280325015</v>
+      </c>
+      <c r="J65">
+        <v>0.00022852582704585</v>
       </c>
       <c r="K65">
-        <v>0.00407761078974744</v>
+        <v>0.00200913242009132</v>
       </c>
       <c r="L65">
-        <v>0.00172330124316847</v>
+        <v>0.00115677321156773</v>
       </c>
       <c r="M65">
-        <v>0.00482796658172101</v>
+        <v>0.00396566266443658</v>
       </c>
       <c r="N65">
-        <v>0.00217118592344972</v>
+        <v>0.000773054800608828</v>
       </c>
       <c r="O65">
-        <v>0.0103021319378197</v>
+        <v>0.00383561643835616</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="Q65">
+        <v>0.00313546423135464</v>
       </c>
     </row>
     <row r="66">
@@ -18694,50 +18442,46 @@
         <v>43211.2111111111</v>
       </c>
       <c r="D66">
-        <v>0.0887415656355089</v>
+        <v>0.0383716275718517</v>
       </c>
       <c r="E66">
-        <v>0.0571442731971299</v>
+        <v>0.0197302057481387</v>
       </c>
       <c r="F66">
-        <v>0.129948307170855</v>
+        <v>0.0379092345329918</v>
       </c>
       <c r="G66">
-        <v>1.15584048051664</v>
+        <v>0.399121709258666</v>
       </c>
       <c r="H66">
-        <v>0.218683067256601</v>
+        <v>0.0777279641341766</v>
       </c>
       <c r="I66">
-        <v>0.0454456352215488</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.014002081498679</v>
+      </c>
+      <c r="J66">
+        <v>0.00234168601393003</v>
       </c>
       <c r="K66">
-        <v>0.0835799334090606</v>
+        <v>0.0411817514078185</v>
       </c>
       <c r="L66">
-        <v>0.037739162456759</v>
+        <v>0.0253325716151147</v>
       </c>
       <c r="M66">
-        <v>0.143998684412632</v>
+        <v>0.118279651865278</v>
       </c>
       <c r="N66">
-        <v>1.11079165240229</v>
+        <v>0.395499441154003</v>
       </c>
       <c r="O66">
-        <v>0.197240226063723</v>
+        <v>0.0734350771239696</v>
       </c>
       <c r="P66">
-        <v>0.0558840812622559</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>0.0103158410185261</v>
+      </c>
+      <c r="Q66">
+        <v>0.00365624744960418</v>
       </c>
     </row>
   </sheetData>
@@ -18869,10 +18613,8 @@
       <c r="G2">
         <v>1.26174546876788</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H2">
+        <v>2.83810172657786</v>
       </c>
       <c r="I2">
         <v>0.683386183098289</v>
@@ -18881,7 +18623,7 @@
         <v>1.21715750308995</v>
       </c>
       <c r="K2">
-        <v>0.654690518915768</v>
+        <v>0.654690518915769</v>
       </c>
       <c r="L2">
         <v>1.2396688555974</v>
@@ -18892,10 +18634,8 @@
       <c r="N2">
         <v>1.57843612340832</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O2">
+        <v>0.75870969487649</v>
       </c>
     </row>
     <row r="3">
@@ -18922,10 +18662,8 @@
       <c r="G3">
         <v>2.08133528638093</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H3">
+        <v>9.54111313849397</v>
       </c>
       <c r="I3">
         <v>0.64564540958174</v>
@@ -18947,10 +18685,8 @@
           <t/>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O3">
+        <v>5.35561811039579</v>
       </c>
     </row>
     <row r="4">
@@ -18977,10 +18713,8 @@
       <c r="G4">
         <v>1.87596696117247</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H4">
+        <v>4.39268091101071</v>
       </c>
       <c r="I4">
         <v>0.535627860515562</v>
@@ -19002,10 +18736,8 @@
           <t/>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O4">
+        <v>2.8051012212797</v>
       </c>
     </row>
     <row r="5">
@@ -19015,7 +18747,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.488183812782272</v>
+        <v>0.488183812782273</v>
       </c>
       <c r="C5">
         <v>2.23279716049898</v>
@@ -19032,10 +18764,8 @@
       <c r="G5">
         <v>2.13025651099716</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H5">
+        <v>5.34119545756825</v>
       </c>
       <c r="I5">
         <v>0.505404132577257</v>
@@ -19055,10 +18785,8 @@
       <c r="N5">
         <v>2.19131345859233</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O5">
+        <v>3.01406570724588</v>
       </c>
     </row>
     <row r="6">
@@ -19085,10 +18813,8 @@
       <c r="G6">
         <v>4.81459296364965</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H6">
+        <v>13.0344501428024</v>
       </c>
       <c r="I6">
         <v>0.738492162025813</v>
@@ -19108,10 +18834,8 @@
       <c r="N6">
         <v>5.18583606950841</v>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O6">
+        <v>9.93703582175286</v>
       </c>
     </row>
     <row r="7">
@@ -19138,10 +18862,8 @@
       <c r="G7">
         <v>3.09775207777983</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H7">
+        <v>8.70888302796982</v>
       </c>
       <c r="I7">
         <v>0.633155827878223</v>
@@ -19161,10 +18883,8 @@
       <c r="N7">
         <v>3.2406071158931</v>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O7">
+        <v>6.4611778861396</v>
       </c>
     </row>
     <row r="8">
@@ -19191,10 +18911,8 @@
       <c r="G8">
         <v>1.64508762403945</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H8">
+        <v>4.73021383300571</v>
       </c>
       <c r="I8">
         <v>0.44768124568613</v>
@@ -19214,10 +18932,8 @@
       <c r="N8">
         <v>0.625564816152568</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O8">
+        <v>8.44559265050937</v>
       </c>
     </row>
     <row r="9">
@@ -19244,10 +18960,8 @@
       <c r="G9">
         <v>1.51911143979507</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H9">
+        <v>4.91505384230308</v>
       </c>
       <c r="I9">
         <v>0.484715610689435</v>
@@ -19267,10 +18981,8 @@
       <c r="N9">
         <v>2.24737910784051</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O9">
+        <v>6.37334975165314</v>
       </c>
     </row>
     <row r="10">
@@ -19297,10 +19009,8 @@
       <c r="G10">
         <v>2.4474487485051</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H10">
+        <v>6.6415962119374</v>
       </c>
       <c r="I10">
         <v>0.559448113743094</v>
@@ -19320,10 +19030,8 @@
       <c r="N10">
         <v>4.38246198315948</v>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O10">
+        <v>6.891989830624</v>
       </c>
     </row>
     <row r="11">
@@ -19350,10 +19058,8 @@
       <c r="G11">
         <v>2.47393846061793</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H11">
+        <v>7.14250557130848</v>
       </c>
       <c r="I11">
         <v>0.473917730229609</v>
@@ -19373,10 +19079,8 @@
       <c r="N11">
         <v>2.54148541684667</v>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O11">
+        <v>4.54775924201943</v>
       </c>
     </row>
     <row r="12">
@@ -19403,10 +19107,8 @@
       <c r="G12">
         <v>0.822156820649199</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H12">
+        <v>1.68448352576571</v>
       </c>
       <c r="I12">
         <v>0.488409234499371</v>
@@ -19426,10 +19128,8 @@
       <c r="N12">
         <v>2.27376225665396</v>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O12">
+        <v>0.912847734763993</v>
       </c>
     </row>
     <row r="13">
@@ -19456,10 +19156,8 @@
       <c r="G13">
         <v>2.19232356532188</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H13">
+        <v>4.08238024546559</v>
       </c>
       <c r="I13">
         <v>0.44685168511032</v>
@@ -19468,7 +19166,7 @@
         <v>1.89465384608756</v>
       </c>
       <c r="K13">
-        <v>1.43448771908419</v>
+        <v>1.4344877190842</v>
       </c>
       <c r="L13">
         <v>2.10626879872145</v>
@@ -19479,10 +19177,8 @@
       <c r="N13">
         <v>2.6896007955957</v>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O13">
+        <v>2.27399832736669</v>
       </c>
     </row>
     <row r="14">
@@ -19509,10 +19205,8 @@
       <c r="G14">
         <v>2.80988424473789</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H14">
+        <v>7.80738371711338</v>
       </c>
       <c r="I14">
         <v>0.743264369566363</v>
@@ -19532,10 +19226,8 @@
       <c r="N14">
         <v>1.84427868876825</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O14">
+        <v>8.10922842317033</v>
       </c>
     </row>
     <row r="15">
@@ -19545,7 +19237,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.879390479013846</v>
+        <v>0.879390479013847</v>
       </c>
       <c r="C15">
         <v>2.76598970646639</v>
@@ -19562,10 +19254,8 @@
       <c r="G15">
         <v>2.06864234521598</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H15">
+        <v>4.72852568787648</v>
       </c>
       <c r="I15">
         <v>0.951429136827334</v>
@@ -19585,10 +19275,8 @@
       <c r="N15">
         <v>2.85956661249978</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O15">
+        <v>1.38299637822291</v>
       </c>
     </row>
     <row r="16">
@@ -19615,10 +19303,8 @@
       <c r="G16">
         <v>2.07298628167081</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H16">
+        <v>5.97007986555984</v>
       </c>
       <c r="I16">
         <v>0.714569460774775</v>
@@ -19638,10 +19324,8 @@
       <c r="N16">
         <v>3.63058698068934</v>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O16">
+        <v>7.46082608916237</v>
       </c>
     </row>
     <row r="17">
@@ -19668,10 +19352,8 @@
       <c r="G17">
         <v>3.14206173490455</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H17">
+        <v>8.24182444122898</v>
       </c>
       <c r="I17">
         <v>1.19659249447848</v>
@@ -19691,10 +19373,8 @@
       <c r="N17">
         <v>3.13396240788563</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O17">
+        <v>7.07858604680069</v>
       </c>
     </row>
     <row r="18">
@@ -19721,10 +19401,8 @@
       <c r="G18">
         <v>1.51278371475576</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H18">
+        <v>3.18106811966749</v>
       </c>
       <c r="I18">
         <v>0.643327295014012</v>
@@ -19742,12 +19420,10 @@
         <v>0.967688524441975</v>
       </c>
       <c r="N18">
-        <v>2.94164504027093</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2.94164504027094</v>
+      </c>
+      <c r="O18">
+        <v>2.00669900659179</v>
       </c>
     </row>
     <row r="19">
@@ -19774,10 +19450,8 @@
       <c r="G19">
         <v>2.24107134977576</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H19">
+        <v>4.9028130140843</v>
       </c>
       <c r="I19">
         <v>0.488045927974343</v>
@@ -19786,7 +19460,7 @@
         <v>1.32015245616052</v>
       </c>
       <c r="K19">
-        <v>2.4737006117993</v>
+        <v>2.47370061179931</v>
       </c>
       <c r="L19">
         <v>2.02323235116559</v>
@@ -19797,10 +19471,8 @@
       <c r="N19">
         <v>2.31572430371209</v>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O19">
+        <v>2.94903863325358</v>
       </c>
     </row>
     <row r="20">
@@ -19827,10 +19499,8 @@
       <c r="G20">
         <v>2.32328865109694</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H20">
+        <v>5.31598016079095</v>
       </c>
       <c r="I20">
         <v>0.532883120969307</v>
@@ -19852,10 +19522,8 @@
           <t/>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O20">
+        <v>5.70987282813897</v>
       </c>
     </row>
     <row r="21">
@@ -19877,15 +19545,13 @@
         <v>1.90469668926529</v>
       </c>
       <c r="F21">
-        <v>0.849180612893315</v>
+        <v>0.849180612893316</v>
       </c>
       <c r="G21">
         <v>1.99183885104557</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H21">
+        <v>6.48858824101983</v>
       </c>
       <c r="I21">
         <v>0.558845957932258</v>
@@ -19905,10 +19571,8 @@
       <c r="N21">
         <v>1.95964213776285</v>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O21">
+        <v>1.95782517615475</v>
       </c>
     </row>
     <row r="22">
@@ -19930,15 +19594,13 @@
         <v>1.77807174197229</v>
       </c>
       <c r="F22">
-        <v>0.8303885700744</v>
+        <v>0.830388570074401</v>
       </c>
       <c r="G22">
-        <v>1.90445984612224</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>1.90445984612223</v>
+      </c>
+      <c r="H22">
+        <v>5.74562841352431</v>
       </c>
       <c r="I22">
         <v>0.726294636989364</v>
@@ -19960,10 +19622,8 @@
           <t/>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O22">
+        <v>7.09895865498242</v>
       </c>
     </row>
     <row r="23">
@@ -19990,10 +19650,8 @@
       <c r="G23">
         <v>1.75295064288542</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H23">
+        <v>5.22197080658174</v>
       </c>
       <c r="I23">
         <v>0.273193489008446</v>
@@ -20015,10 +19673,8 @@
           <t/>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O23">
+        <v>5.13937576602425</v>
       </c>
     </row>
     <row r="24">
@@ -20045,10 +19701,8 @@
       <c r="G24">
         <v>2.04009709138023</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H24">
+        <v>6.94888741622504</v>
       </c>
       <c r="I24">
         <v>0.574419642473605</v>
@@ -20068,10 +19722,8 @@
       <c r="N24">
         <v>3.42620016233367</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O24">
+        <v>7.28711907515621</v>
       </c>
     </row>
     <row r="25">
@@ -20093,15 +19745,13 @@
         <v>2.12580009401885</v>
       </c>
       <c r="F25">
-        <v>0.807047996542746</v>
+        <v>0.807047996542747</v>
       </c>
       <c r="G25">
         <v>2.45010571720485</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H25">
+        <v>4.99745025861493</v>
       </c>
       <c r="I25">
         <v>0.63074558437048</v>
@@ -20121,10 +19771,8 @@
       <c r="N25">
         <v>2.6917307408483</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O25">
+        <v>5.70329955734796</v>
       </c>
     </row>
     <row r="26">
@@ -20151,10 +19799,8 @@
       <c r="G26">
         <v>2.5010053150837</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H26">
+        <v>8.44512954784513</v>
       </c>
       <c r="I26">
         <v>0.709566645541487</v>
@@ -20174,10 +19820,8 @@
       <c r="N26">
         <v>2.68646010076213</v>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O26">
+        <v>7.4544527439536</v>
       </c>
     </row>
     <row r="27">
@@ -20204,10 +19848,8 @@
       <c r="G27">
         <v>1.95731405427325</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H27">
+        <v>8.32705420572714</v>
       </c>
       <c r="I27">
         <v>0.298589961081143</v>
@@ -20227,10 +19869,8 @@
       <c r="N27">
         <v>3.23085085404674</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O27">
+        <v>1.19764429137213</v>
       </c>
     </row>
     <row r="28">
@@ -20257,10 +19897,8 @@
       <c r="G28">
         <v>1.73058594283883</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H28">
+        <v>4.8011052959001</v>
       </c>
       <c r="I28">
         <v>0.387490209850657</v>
@@ -20280,10 +19918,8 @@
       <c r="N28">
         <v>1.43348436431108</v>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O28">
+        <v>2.87732761031994</v>
       </c>
     </row>
     <row r="29">
@@ -20310,10 +19946,8 @@
       <c r="G29">
         <v>2.07432581201438</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H29">
+        <v>5.183614991262</v>
       </c>
       <c r="I29">
         <v>0.898390206427284</v>
@@ -20333,10 +19967,8 @@
       <c r="N29">
         <v>3.00745989470173</v>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O29">
+        <v>5.67992693519356</v>
       </c>
     </row>
     <row r="30">
@@ -20363,10 +19995,8 @@
       <c r="G30">
         <v>2.29573047528471</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H30">
+        <v>7.02407047081166</v>
       </c>
       <c r="I30">
         <v>0.623854911743561</v>
@@ -20386,10 +20016,8 @@
       <c r="N30">
         <v>2.68117755269058</v>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O30">
+        <v>5.58344037753149</v>
       </c>
     </row>
     <row r="31">
@@ -20416,10 +20044,8 @@
       <c r="G31">
         <v>1.87124468423069</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H31">
+        <v>7.11234482553648</v>
       </c>
       <c r="I31">
         <v>0.275880134805825</v>
@@ -20439,10 +20065,8 @@
       <c r="N31">
         <v>1.02074468176337</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O31">
+        <v>3.24885570539941</v>
       </c>
     </row>
     <row r="32">
@@ -20469,10 +20093,8 @@
       <c r="G32">
         <v>1.65327892887338</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="H32">
+        <v>5.83181998777525</v>
       </c>
       <c r="I32">
         <v>0.325656827805616</v>
@@ -20494,10 +20116,8 @@
           <t/>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="O32">
+        <v>5.19702976794123</v>
       </c>
     </row>
   </sheetData>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-30 17:57:31.308527</t>
+          <t>2025-05-02 11:35:32.940277</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -616,7 +616,7 @@
   <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="26.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-28 10:33:27.20723</t>
+          <t>2025-05-08 15:52:50.214613</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -613,10 +613,10 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="26.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-08 16:54:03.014264</t>
+          <t>2025-05-30 17:04:40.73049</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="15.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
@@ -4392,7 +4392,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="14.711"/>
@@ -5775,7 +5775,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="16.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
@@ -5863,7 +5863,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" bestFit="1" customWidth="1" hidden="false" width="9.711"/>
     <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="15.711"/>
@@ -5929,7 +5929,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="44.711"/>
   </cols>
@@ -5976,7 +5976,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="45.711"/>
   </cols>
@@ -6023,7 +6023,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="31.711"/>
   </cols>
@@ -6070,7 +6070,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="31.711"/>
   </cols>
@@ -6117,7 +6117,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -10381,7 +10381,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -14645,7 +14645,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -18505,7 +18505,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="13.711"/>
     <col min="2" max="8" bestFit="1" customWidth="1" hidden="false" width="17.711"/>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -616,7 +616,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="26.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-30 17:04:40.73049</t>
+          <t>2025-06-16 10:45:05.079195</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -67,6 +67,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="1" name="Table1" displayName="Table1" ref="A1:B6" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Info"/>
     <tableColumn id="2" name="Value"/>
@@ -138,6 +139,7 @@
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="13" name="Table13" displayName="Table13" ref="A1:D2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="batch_id"/>
     <tableColumn id="2" name="batch_no"/>
@@ -162,7 +164,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="3" name="Table3" displayName="Table3" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Calibration metrics has not been calculated."/>
+    <tableColumn id="1" name="Calibration metrics have not been calculated."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -170,6 +172,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="4" name="Table4" displayName="Table4" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
     <tableColumn id="1" name="No qc-filtered data available."/>
   </tableColumns>
@@ -179,6 +182,7 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="5" name="Table5" displayName="Table5" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
     <tableColumn id="1" name="No qc-filtered data available."/>
   </tableColumns>
@@ -188,6 +192,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="6" name="Table6" displayName="Table6" ref="A1:S66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:S66"/>
   <tableColumns count="19">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -215,6 +220,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="7" name="Table7" displayName="Table7" ref="A1:S66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:S66"/>
   <tableColumns count="19">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -242,6 +248,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="8" name="Table8" displayName="Table8" ref="A1:Q66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:Q66"/>
   <tableColumns count="17">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -639,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-16 10:45:05.079195</t>
+          <t>2025-07-01 19:07:04.198875</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5868,10 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100"/>
+    <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5978,13 +5988,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="45.711"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="46.711"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Calibration metrics has not been calculated.</t>
+          <t>Calibration metrics have not been calculated.</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-01 19:07:04.198875</t>
+          <t>2025-07-03 16:14:37.972712</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-03 16:14:37.972712</t>
+          <t>2025-07-16 13:43:14.663119</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-16 13:43:14.663119</t>
+          <t>2025-07-16 16:09:22.019418</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-16 16:09:22.019418</t>
+          <t>2025-08-07 13:33:10.879816</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-07 13:33:10.879816</t>
+          <t>2025-09-19 10:32:20.314112</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -623,7 +623,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="26.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-19 10:32:20.314112</t>
+          <t>2025-09-26 17:48:10.84868</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.2.1</t>
+          <t>0.2.2</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-26 17:48:10.84868</t>
+          <t>2025-10-01 17:44:16.36797</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.2.2</t>
+          <t>0.2.3</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pmpol/uL</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>

--- a/vignettes/articles/report_norm.xlsx
+++ b/vignettes/articles/report_norm.xlsx
@@ -623,7 +623,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="26.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-01 17:44:16.36797</t>
+          <t>2025-10-02 15:06:39.849266</t>
         </is>
       </c>
     </row>
